--- a/data/JLT_CatLogs.xlsx
+++ b/data/JLT_CatLogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudhendu-BCT\Documents\Projects\self\JLT_Cats\git\jlt-cat-tnr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36098B9-D079-45B4-A683-910D12B16E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50997CC7-6A59-41CC-BA21-98BF9D5994F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2DE1B5A-9FFD-406D-804B-F18313662538}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="396">
   <si>
     <t>NAME</t>
   </si>
@@ -722,9 +722,6 @@
   </si>
   <si>
     <t>CATID</t>
-  </si>
-  <si>
-    <t>CLUSTER</t>
   </si>
   <si>
     <t>SPONSOR</t>
@@ -6127,7 +6124,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1:U1048576"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6160,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>208</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>203</v>
@@ -6202,7 +6199,7 @@
         <v>48</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T1" s="18" t="s">
         <v>206</v>
@@ -6223,7 +6220,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
@@ -6259,7 +6256,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T2" s="4"/>
     </row>
@@ -6279,7 +6276,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="23" t="s">
@@ -6310,14 +6307,14 @@
         <v>24</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q3" s="23" t="s">
         <v>31</v>
       </c>
       <c r="R3" s="23"/>
       <c r="S3" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T3" s="23"/>
     </row>
@@ -6337,7 +6334,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -6373,7 +6370,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T4" s="4"/>
     </row>
@@ -6393,7 +6390,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -6429,7 +6426,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T5" s="4"/>
     </row>
@@ -6449,7 +6446,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="4" t="s">
@@ -6481,7 +6478,7 @@
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T6" s="4"/>
     </row>
@@ -6501,7 +6498,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>46</v>
@@ -6537,7 +6534,7 @@
         <v>21</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T7" s="12"/>
     </row>
@@ -6557,7 +6554,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>46</v>
@@ -6599,7 +6596,7 @@
         <v>21</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T8" s="12"/>
     </row>
@@ -6619,7 +6616,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>46</v>
@@ -6669,7 +6666,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -6699,7 +6696,7 @@
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T10" s="4"/>
     </row>
@@ -6719,7 +6716,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>66</v>
@@ -6771,7 +6768,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -6819,7 +6816,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -6857,7 +6854,7 @@
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T13" s="4"/>
     </row>
@@ -6877,7 +6874,7 @@
         <v>39</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
@@ -6925,7 +6922,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
@@ -6959,7 +6956,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T15" s="4"/>
     </row>
@@ -6979,7 +6976,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
@@ -7013,7 +7010,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T16" s="4"/>
     </row>
@@ -7033,7 +7030,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
@@ -7067,7 +7064,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T17" s="4"/>
     </row>
@@ -7087,7 +7084,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
@@ -7123,7 +7120,7 @@
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T18" s="4"/>
     </row>
@@ -7143,7 +7140,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
@@ -7175,7 +7172,7 @@
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T19" s="4"/>
     </row>
@@ -7195,7 +7192,7 @@
         <v>39</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>66</v>
@@ -7233,7 +7230,7 @@
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T20" s="4"/>
     </row>
@@ -7253,7 +7250,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
@@ -7285,7 +7282,7 @@
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T21" s="4"/>
     </row>
@@ -7305,7 +7302,7 @@
         <v>39</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
@@ -7333,13 +7330,13 @@
         <v>25</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R22" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T22" s="12"/>
     </row>
@@ -7359,7 +7356,7 @@
         <v>39</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>91</v>
@@ -7397,7 +7394,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T23" s="4"/>
     </row>
@@ -7417,7 +7414,7 @@
         <v>15</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>94</v>
@@ -7449,7 +7446,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T24" s="4"/>
     </row>
@@ -7469,7 +7466,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>94</v>
@@ -7501,7 +7498,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T25" s="4"/>
     </row>
@@ -7521,7 +7518,7 @@
         <v>39</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>94</v>
@@ -7553,7 +7550,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T26" s="4"/>
     </row>
@@ -7573,7 +7570,7 @@
         <v>15</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>94</v>
@@ -7607,7 +7604,7 @@
       </c>
       <c r="R27" s="4"/>
       <c r="S27" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T27" s="4"/>
     </row>
@@ -7627,7 +7624,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>94</v>
@@ -7659,7 +7656,7 @@
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T28" s="4"/>
     </row>
@@ -7679,7 +7676,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>94</v>
@@ -7713,7 +7710,7 @@
       </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T29" s="4"/>
     </row>
@@ -7733,7 +7730,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>94</v>
@@ -7763,7 +7760,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T30" s="4"/>
     </row>
@@ -7783,7 +7780,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
@@ -7819,7 +7816,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T31" s="4"/>
     </row>
@@ -7839,7 +7836,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>109</v>
@@ -7871,7 +7868,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T32" s="4"/>
     </row>
@@ -7891,7 +7888,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>94</v>
@@ -7923,7 +7920,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T33" s="4"/>
     </row>
@@ -7943,7 +7940,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
@@ -7987,7 +7984,7 @@
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
@@ -8029,7 +8026,7 @@
         <v>39</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -8063,7 +8060,7 @@
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T36" s="4"/>
     </row>
@@ -8079,7 +8076,7 @@
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
@@ -8117,7 +8114,7 @@
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
@@ -8155,7 +8152,7 @@
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
@@ -8193,7 +8190,7 @@
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
@@ -8231,7 +8228,7 @@
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
@@ -8273,7 +8270,7 @@
         <v>39</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
@@ -8307,7 +8304,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T42" s="4"/>
     </row>
@@ -8323,7 +8320,7 @@
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
@@ -8361,7 +8358,7 @@
       <c r="C44" s="16"/>
       <c r="D44" s="17"/>
       <c r="E44" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
@@ -8399,7 +8396,7 @@
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
@@ -8437,7 +8434,7 @@
       <c r="C46" s="16"/>
       <c r="D46" s="17"/>
       <c r="E46" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
@@ -8475,7 +8472,7 @@
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
@@ -8513,7 +8510,7 @@
       <c r="C48" s="16"/>
       <c r="D48" s="17"/>
       <c r="E48" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
@@ -8551,7 +8548,7 @@
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
@@ -8591,7 +8588,7 @@
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
       <c r="E50" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
@@ -8631,7 +8628,7 @@
       <c r="C51" s="16"/>
       <c r="D51" s="17"/>
       <c r="E51" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
@@ -8669,7 +8666,7 @@
       <c r="C52" s="16"/>
       <c r="D52" s="17"/>
       <c r="E52" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
@@ -8707,7 +8704,7 @@
       <c r="C53" s="16"/>
       <c r="D53" s="17"/>
       <c r="E53" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
@@ -8745,7 +8742,7 @@
       <c r="C54" s="16"/>
       <c r="D54" s="17"/>
       <c r="E54" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
@@ -8783,7 +8780,7 @@
       <c r="C55" s="16"/>
       <c r="D55" s="17"/>
       <c r="E55" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
@@ -8821,7 +8818,7 @@
       <c r="C56" s="16"/>
       <c r="D56" s="17"/>
       <c r="E56" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
@@ -8863,7 +8860,7 @@
         <v>39</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12" t="s">
@@ -8891,13 +8888,13 @@
         <v>25</v>
       </c>
       <c r="Q57" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R57" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S57" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T57" s="12"/>
     </row>
@@ -8917,7 +8914,7 @@
         <v>39</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
@@ -8953,7 +8950,7 @@
       </c>
       <c r="R58" s="4"/>
       <c r="S58" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T58" s="4"/>
     </row>
@@ -8973,7 +8970,7 @@
         <v>39</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
@@ -9011,7 +9008,7 @@
       </c>
       <c r="R59" s="4"/>
       <c r="S59" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T59" s="4"/>
     </row>
@@ -9031,7 +9028,7 @@
         <v>39</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
@@ -9069,7 +9066,7 @@
       </c>
       <c r="R60" s="4"/>
       <c r="S60" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T60" s="4"/>
     </row>
@@ -9089,7 +9086,7 @@
         <v>15</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="23" t="s">
@@ -9120,14 +9117,14 @@
         <v>24</v>
       </c>
       <c r="P61" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q61" s="23" t="s">
         <v>136</v>
       </c>
       <c r="R61" s="23"/>
       <c r="S61" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T61" s="23"/>
     </row>
@@ -9147,7 +9144,7 @@
         <v>15</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
@@ -9185,7 +9182,7 @@
       </c>
       <c r="R62" s="4"/>
       <c r="S62" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T62" s="4"/>
     </row>
@@ -9205,7 +9202,7 @@
         <v>15</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
@@ -9243,7 +9240,7 @@
       </c>
       <c r="R63" s="4"/>
       <c r="S63" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T63" s="4"/>
     </row>
@@ -9263,7 +9260,7 @@
         <v>15</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
@@ -9297,7 +9294,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T64" s="4"/>
     </row>
@@ -9317,7 +9314,7 @@
         <v>15</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
@@ -9349,7 +9346,7 @@
       </c>
       <c r="R65" s="4"/>
       <c r="S65" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T65" s="4"/>
     </row>
@@ -9369,7 +9366,7 @@
         <v>15</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
@@ -9427,7 +9424,7 @@
         <v>15</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
@@ -9483,7 +9480,7 @@
         <v>39</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="12" t="s">
@@ -9515,7 +9512,7 @@
         <v>21</v>
       </c>
       <c r="S68" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T68" s="12"/>
     </row>
@@ -9535,7 +9532,7 @@
         <v>15</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
@@ -9583,7 +9580,7 @@
         <v>39</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
@@ -9613,7 +9610,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T70" s="4"/>
     </row>
@@ -9633,7 +9630,7 @@
         <v>39</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12" t="s">
@@ -9661,13 +9658,13 @@
         <v>25</v>
       </c>
       <c r="Q71" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R71" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S71" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T71" s="12"/>
     </row>
@@ -9687,7 +9684,7 @@
         <v>15</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12" t="s">
@@ -9739,7 +9736,7 @@
         <v>39</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12" t="s">
@@ -9791,7 +9788,7 @@
         <v>15</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
@@ -9841,7 +9838,7 @@
         <v>15</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="12" t="s">
@@ -9899,7 +9896,7 @@
         <v>15</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4" t="s">
@@ -9955,7 +9952,7 @@
         <v>39</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
@@ -10011,7 +10008,7 @@
         <v>39</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12" t="s">
@@ -10071,7 +10068,7 @@
         <v>15</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12" t="s">
@@ -10099,7 +10096,7 @@
         <v>25</v>
       </c>
       <c r="Q79" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R79" s="12" t="s">
         <v>21</v>
@@ -10123,7 +10120,7 @@
         <v>15</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
@@ -10153,7 +10150,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T80" s="4"/>
     </row>
@@ -10173,7 +10170,7 @@
         <v>15</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
@@ -10221,7 +10218,7 @@
         <v>39</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4" t="s">
@@ -10251,7 +10248,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T82" s="4"/>
     </row>
@@ -10271,7 +10268,7 @@
         <v>15</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
@@ -10301,7 +10298,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T83" s="4"/>
     </row>
@@ -10315,13 +10312,13 @@
         <v>Zoom- Cluster V</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
@@ -10347,15 +10344,15 @@
         <v>25</v>
       </c>
       <c r="Q84" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R84" s="4"/>
       <c r="S84" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T84" s="4"/>
       <c r="U84" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10368,13 +10365,13 @@
         <v>Chewy- Cluster Y</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
@@ -10387,7 +10384,7 @@
         <v>47</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>21</v>
@@ -10402,11 +10399,11 @@
         <v>25</v>
       </c>
       <c r="Q85" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R85" s="4"/>
       <c r="S85" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T85" s="4"/>
     </row>
@@ -10420,13 +10417,13 @@
         <v>Bonnie- Cluster Y</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4" t="s">
@@ -10452,11 +10449,11 @@
         <v>25</v>
       </c>
       <c r="Q86" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R86" s="4"/>
       <c r="S86" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T86" s="4"/>
     </row>
@@ -10476,7 +10473,7 @@
         <v>15</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4" t="s">
@@ -10506,7 +10503,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T87" s="4"/>
     </row>
@@ -10526,7 +10523,7 @@
         <v>15</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4" t="s">
@@ -10554,7 +10551,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T88" s="4"/>
     </row>
@@ -10568,13 +10565,13 @@
         <v>Curiosity- Cluster Y</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
@@ -10587,7 +10584,7 @@
         <v>47</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>21</v>
@@ -10602,11 +10599,11 @@
         <v>25</v>
       </c>
       <c r="Q89" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R89" s="4"/>
       <c r="S89" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T89" s="4"/>
     </row>
@@ -10626,7 +10623,7 @@
         <v>15</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4" t="s">
@@ -10656,7 +10653,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T90" s="4"/>
     </row>
@@ -10676,7 +10673,7 @@
         <v>15</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="12" t="s">
@@ -10728,7 +10725,7 @@
         <v>39</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="4" t="s">
@@ -10762,7 +10759,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T92" s="4"/>
     </row>
@@ -10782,7 +10779,7 @@
         <v>39</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4" t="s">
@@ -10830,13 +10827,13 @@
         <v>Roni- Cluster Q</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="12" t="s">
@@ -10886,7 +10883,7 @@
         <v>15</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="4" t="s">
@@ -10914,7 +10911,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T95" s="4"/>
     </row>
@@ -10934,7 +10931,7 @@
         <v>39</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4" t="s">
@@ -10962,7 +10959,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T96" s="4"/>
     </row>
@@ -10982,7 +10979,7 @@
         <v>39</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="12" t="s">
@@ -11034,7 +11031,7 @@
         <v>39</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12" t="s">
@@ -11066,7 +11063,7 @@
         <v>21</v>
       </c>
       <c r="S98" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T98" s="12"/>
     </row>
@@ -11086,7 +11083,7 @@
         <v>15</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="4" t="s">
@@ -11142,7 +11139,7 @@
         <v>15</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
@@ -11190,13 +11187,13 @@
         <v>Meowster- Cluster X</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4" t="s">
@@ -11224,7 +11221,7 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T101" s="4"/>
     </row>
@@ -11244,7 +11241,7 @@
         <v>15</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>33</v>
@@ -11271,7 +11268,7 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T102" s="4"/>
     </row>
@@ -11285,13 +11282,13 @@
         <v>Yara- Cluster Y</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>33</v>
@@ -11316,7 +11313,7 @@
         <v>25</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
@@ -11332,13 +11329,13 @@
         <v>Sad Face- Cluster Y</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>33</v>
@@ -11363,7 +11360,7 @@
         <v>25</v>
       </c>
       <c r="Q104" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
@@ -11379,13 +11376,13 @@
         <v>Bully- Cluster V</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>67</v>
@@ -11412,7 +11409,7 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
       <c r="S105" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T105" s="4"/>
     </row>
@@ -11426,13 +11423,13 @@
         <v>Midnight- Cluster V</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>57</v>
@@ -11459,7 +11456,7 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T106" s="4"/>
     </row>
@@ -11473,13 +11470,13 @@
         <v>Liwa- Cluster L</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>51</v>
@@ -11526,13 +11523,13 @@
         <v>Valerie- Cluster V</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>51</v>
@@ -11579,13 +11576,13 @@
         <v>Melody- Cluster M</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>51</v>
@@ -11632,13 +11629,13 @@
         <v>Coco- Cluster O</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G110" s="12" t="s">
         <v>77</v>
@@ -11665,13 +11662,13 @@
         <v>25</v>
       </c>
       <c r="Q110" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R110" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S110" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T110" s="12"/>
     </row>
@@ -11685,13 +11682,13 @@
         <v>Lexie- Cluster D</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G111" s="12" t="s">
         <v>67</v>
@@ -11718,13 +11715,13 @@
         <v>25</v>
       </c>
       <c r="Q111" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R111" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S111" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T111" s="12"/>
     </row>
@@ -11738,11 +11735,11 @@
         <v>Snowflake- Cluster J</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>71</v>
@@ -11754,7 +11751,7 @@
         <v>68</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>59</v>
@@ -11763,13 +11760,13 @@
       <c r="M112" s="4"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="P112" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q112" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="P112" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q112" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
@@ -11785,11 +11782,11 @@
         <v>Jim- Cluster J</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>67</v>
@@ -11801,7 +11798,7 @@
         <v>47</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>59</v>
@@ -11810,7 +11807,7 @@
       <c r="M113" s="4"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P113" s="4" t="s">
         <v>25</v>
@@ -11830,13 +11827,13 @@
         <v>Dixie- Cluster D</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>67</v>
@@ -11848,7 +11845,7 @@
         <v>47</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>59</v>
@@ -11857,7 +11854,7 @@
       <c r="M114" s="4"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P114" s="4" t="s">
         <v>25</v>
@@ -11877,13 +11874,13 @@
         <v>Frank- Cluster J</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>33</v>
@@ -11895,7 +11892,7 @@
         <v>47</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K115" s="4" t="s">
         <v>21</v>
@@ -11904,17 +11901,17 @@
       <c r="M115" s="4"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P115" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q115" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R115" s="4"/>
       <c r="S115" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T115" s="4"/>
     </row>
@@ -11928,13 +11925,13 @@
         <v>Pirate- Cluster D</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>148</v>
@@ -11946,7 +11943,7 @@
         <v>47</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K116" s="4" t="s">
         <v>21</v>
@@ -11963,7 +11960,7 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T116" s="4"/>
     </row>
@@ -11977,13 +11974,13 @@
         <v>Scooter- Cluster D</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>116</v>
@@ -11995,7 +11992,7 @@
         <v>47</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>21</v>
@@ -12010,11 +12007,11 @@
         <v>25</v>
       </c>
       <c r="Q117" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R117" s="4"/>
       <c r="S117" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T117" s="4"/>
     </row>
@@ -12028,13 +12025,13 @@
         <v>Tom Tom- Cluster D</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>148</v>
@@ -12046,7 +12043,7 @@
         <v>47</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K118" s="4" t="s">
         <v>21</v>
@@ -12061,11 +12058,11 @@
         <v>25</v>
       </c>
       <c r="Q118" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R118" s="4"/>
       <c r="S118" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T118" s="4"/>
     </row>
@@ -12079,13 +12076,13 @@
         <v>Carl- Cluster C</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>33</v>
@@ -12097,7 +12094,7 @@
         <v>47</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>59</v>
@@ -12112,7 +12109,7 @@
         <v>25</v>
       </c>
       <c r="Q119" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
@@ -12128,13 +12125,13 @@
         <v>Joe- Cluster B</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>33</v>
@@ -12146,7 +12143,7 @@
         <v>47</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K120" s="4" t="s">
         <v>21</v>
@@ -12161,11 +12158,11 @@
         <v>25</v>
       </c>
       <c r="Q120" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R120" s="4"/>
       <c r="S120" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T120" s="4"/>
     </row>
@@ -12179,13 +12176,13 @@
         <v>Jerry- Cluster S</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G121" s="12" t="s">
         <v>110</v>
@@ -12212,13 +12209,13 @@
         <v>25</v>
       </c>
       <c r="Q121" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R121" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S121" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T121" s="12"/>
     </row>
@@ -12232,13 +12229,13 @@
         <v>Filli- Cluster F</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G122" s="12" t="s">
         <v>28</v>
@@ -12265,13 +12262,13 @@
         <v>25</v>
       </c>
       <c r="Q122" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R122" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S122" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T122" s="12"/>
     </row>
@@ -12285,13 +12282,13 @@
         <v>Leon- Cluster A</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G123" s="12" t="s">
         <v>124</v>
@@ -12318,13 +12315,13 @@
         <v>25</v>
       </c>
       <c r="Q123" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R123" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S123" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T123" s="12"/>
     </row>
@@ -12338,16 +12335,16 @@
         <v>Monty- Cluster M</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H124" s="12" t="s">
         <v>18</v>
@@ -12371,13 +12368,13 @@
         <v>25</v>
       </c>
       <c r="Q124" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R124" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S124" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T124" s="12"/>
     </row>
@@ -12391,16 +12388,16 @@
         <v>Moe- Cluster M</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H125" s="12" t="s">
         <v>18</v>
@@ -12424,13 +12421,13 @@
         <v>25</v>
       </c>
       <c r="Q125" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R125" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S125" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T125" s="12"/>
     </row>
@@ -12444,13 +12441,13 @@
         <v>Eli- Cluster E</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>41</v>
@@ -12477,13 +12474,13 @@
         <v>25</v>
       </c>
       <c r="Q126" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R126" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S126" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T126" s="12"/>
     </row>
@@ -12497,16 +12494,16 @@
         <v>Louie- Cluster L</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>42</v>
@@ -12530,7 +12527,7 @@
         <v>25</v>
       </c>
       <c r="Q127" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R127" s="12" t="s">
         <v>21</v>
@@ -12548,13 +12545,13 @@
         <v>Lola- Cluster L</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G128" s="12" t="s">
         <v>67</v>
@@ -12581,7 +12578,7 @@
         <v>25</v>
       </c>
       <c r="Q128" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R128" s="12" t="s">
         <v>21</v>
@@ -12599,16 +12596,16 @@
         <v>Blue- Cluster M</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H129" s="12" t="s">
         <v>18</v>
@@ -12632,13 +12629,13 @@
         <v>25</v>
       </c>
       <c r="Q129" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R129" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S129" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T129" s="12"/>
     </row>
@@ -12652,13 +12649,13 @@
         <v>Wendy- Cluster W</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>71</v>
@@ -12670,7 +12667,7 @@
         <v>47</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K130" s="4" t="s">
         <v>21</v>
@@ -12687,7 +12684,7 @@
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
       <c r="S130" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T130" s="4"/>
     </row>
@@ -12701,13 +12698,13 @@
         <v>Wilson- Cluster W</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>124</v>
@@ -12719,7 +12716,7 @@
         <v>47</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K131" s="4" t="s">
         <v>59</v>
@@ -12748,13 +12745,13 @@
         <v>Winston- Cluster W</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>71</v>
@@ -12766,7 +12763,7 @@
         <v>47</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K132" s="4" t="s">
         <v>59</v>
@@ -12795,11 +12792,11 @@
         <v>Yar- Cluster Y</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>33</v>
@@ -12811,7 +12808,7 @@
         <v>68</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K133" s="4" t="s">
         <v>59</v>
@@ -12826,7 +12823,7 @@
         <v>25</v>
       </c>
       <c r="Q133" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R133" s="4"/>
       <c r="S133" s="4"/>
@@ -12842,11 +12839,11 @@
         <v>Yer- Cluster Y</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>33</v>
@@ -12858,7 +12855,7 @@
         <v>68</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K134" s="4" t="s">
         <v>59</v>
@@ -12873,7 +12870,7 @@
         <v>25</v>
       </c>
       <c r="Q134" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R134" s="4"/>
       <c r="S134" s="4"/>
@@ -12889,11 +12886,11 @@
         <v>Yir- Cluster Y</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>33</v>
@@ -12905,7 +12902,7 @@
         <v>68</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K135" s="4" t="s">
         <v>59</v>
@@ -12920,7 +12917,7 @@
         <v>25</v>
       </c>
       <c r="Q135" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
@@ -12936,11 +12933,11 @@
         <v>Yor- Cluster Y</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>33</v>
@@ -12952,7 +12949,7 @@
         <v>68</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K136" s="4" t="s">
         <v>59</v>
@@ -12967,7 +12964,7 @@
         <v>25</v>
       </c>
       <c r="Q136" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R136" s="4"/>
       <c r="S136" s="4"/>
@@ -12983,11 +12980,11 @@
         <v>Yur- Cluster Y</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>33</v>
@@ -12999,7 +12996,7 @@
         <v>68</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K137" s="4" t="s">
         <v>59</v>
@@ -13014,7 +13011,7 @@
         <v>25</v>
       </c>
       <c r="Q137" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R137" s="4"/>
       <c r="S137" s="4"/>
@@ -13030,13 +13027,13 @@
         <v>Yess- Cluster Y</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>67</v>
@@ -13048,7 +13045,7 @@
         <v>47</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K138" s="4" t="s">
         <v>21</v>
@@ -13060,12 +13057,12 @@
         <v>35</v>
       </c>
       <c r="P138" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
       <c r="S138" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T138" s="4"/>
     </row>
@@ -13079,13 +13076,13 @@
         <v>Snowy V- Cluster V</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G139" s="12" t="s">
         <v>77</v>
@@ -13116,7 +13113,7 @@
         <v>21</v>
       </c>
       <c r="S139" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T139" s="12"/>
     </row>
@@ -13130,13 +13127,13 @@
         <v>Simba- Cluster O</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G140" s="12" t="s">
         <v>77</v>
@@ -13167,7 +13164,7 @@
         <v>21</v>
       </c>
       <c r="S140" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T140" s="12"/>
     </row>
@@ -13181,13 +13178,13 @@
         <v>Betty- Cluster B</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>33</v>
@@ -13199,7 +13196,7 @@
         <v>47</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K141" s="4" t="s">
         <v>21</v>
@@ -13214,11 +13211,11 @@
         <v>25</v>
       </c>
       <c r="Q141" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R141" s="4"/>
       <c r="S141" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T141" s="4"/>
     </row>
@@ -13232,13 +13229,13 @@
         <v>Daisy B- Cluster B</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>124</v>
@@ -13250,7 +13247,7 @@
         <v>47</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K142" s="4" t="s">
         <v>21</v>
@@ -13267,7 +13264,7 @@
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
       <c r="S142" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T142" s="4"/>
     </row>
@@ -13281,13 +13278,13 @@
         <v>Carly- Cluster C</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>110</v>
@@ -13299,7 +13296,7 @@
         <v>47</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K143" s="4" t="s">
         <v>21</v>
@@ -13314,11 +13311,11 @@
         <v>25</v>
       </c>
       <c r="Q143" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R143" s="4"/>
       <c r="S143" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T143" s="4"/>
     </row>
@@ -13332,16 +13329,16 @@
         <v>Bella- Cluster B</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>42</v>
@@ -13350,7 +13347,7 @@
         <v>19</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K144" s="4" t="s">
         <v>21</v>
@@ -13365,11 +13362,11 @@
         <v>25</v>
       </c>
       <c r="Q144" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R144" s="4"/>
       <c r="S144" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T144" s="4"/>
     </row>
@@ -13383,13 +13380,13 @@
         <v>Mr. Gentle- Cluster C</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>51</v>
@@ -13401,7 +13398,7 @@
         <v>47</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K145" s="4" t="s">
         <v>21</v>
@@ -13416,11 +13413,11 @@
         <v>25</v>
       </c>
       <c r="Q145" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R145" s="4"/>
       <c r="S145" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T145" s="4"/>
     </row>
@@ -13434,13 +13431,13 @@
         <v>Tigger- Cluster A</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>124</v>
@@ -13452,7 +13449,7 @@
         <v>47</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K146" s="4" t="s">
         <v>21</v>
@@ -13467,11 +13464,11 @@
         <v>25</v>
       </c>
       <c r="Q146" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R146" s="4"/>
       <c r="S146" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T146" s="4"/>
     </row>
@@ -13485,13 +13482,13 @@
         <v>Tom- Cluster A</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>124</v>
@@ -13503,7 +13500,7 @@
         <v>47</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K147" s="4" t="s">
         <v>21</v>
@@ -13518,11 +13515,11 @@
         <v>30</v>
       </c>
       <c r="Q147" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R147" s="4"/>
       <c r="S147" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T147" s="4"/>
     </row>
@@ -13536,13 +13533,13 @@
         <v>Sambo- Cluster B</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G148" s="12" t="s">
         <v>71</v>
@@ -13569,13 +13566,13 @@
         <v>25</v>
       </c>
       <c r="Q148" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R148" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S148" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T148" s="12"/>
     </row>
@@ -13589,13 +13586,13 @@
         <v>Paddy- Cluster B</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D149" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G149" s="12" t="s">
         <v>41</v>
@@ -13622,13 +13619,13 @@
         <v>25</v>
       </c>
       <c r="Q149" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R149" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S149" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T149" s="12"/>
     </row>
@@ -13642,13 +13639,13 @@
         <v>Prince- Cluster Y</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D150" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G150" s="12" t="s">
         <v>144</v>
@@ -13681,7 +13678,7 @@
         <v>21</v>
       </c>
       <c r="S150" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T150" s="12"/>
     </row>
@@ -13695,13 +13692,13 @@
         <v>Jim Jum- Cluster L</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D151" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G151" s="12" t="s">
         <v>179</v>
@@ -13734,7 +13731,7 @@
         <v>21</v>
       </c>
       <c r="S151" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T151" s="12"/>
     </row>
@@ -13748,13 +13745,13 @@
         <v>Teddy- Cluster S</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G152" s="12" t="s">
         <v>179</v>
@@ -13787,7 +13784,7 @@
         <v>21</v>
       </c>
       <c r="S152" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T152" s="12"/>
     </row>
@@ -13801,13 +13798,13 @@
         <v>Pixie- Cluster S</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D153" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G153" s="12" t="s">
         <v>17</v>
@@ -13840,7 +13837,7 @@
         <v>21</v>
       </c>
       <c r="S153" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T153" s="12"/>
     </row>
@@ -13854,13 +13851,13 @@
         <v>Nikki- Cluster S</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D154" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G154" s="12" t="s">
         <v>116</v>
@@ -13893,7 +13890,7 @@
         <v>21</v>
       </c>
       <c r="S154" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T154" s="12"/>
     </row>
@@ -13907,13 +13904,13 @@
         <v>Boo- Cluster Q</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D155" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G155" s="12" t="s">
         <v>116</v>
@@ -13944,7 +13941,7 @@
         <v>21</v>
       </c>
       <c r="S155" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T155" s="12"/>
     </row>
@@ -13958,13 +13955,13 @@
         <v>Lara- Cluster E</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D156" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G156" s="12" t="s">
         <v>67</v>
@@ -13995,7 +13992,7 @@
         <v>21</v>
       </c>
       <c r="S156" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T156" s="12"/>
     </row>
@@ -14009,13 +14006,13 @@
         <v>Molly- Cluster S</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D157" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G157" s="12" t="s">
         <v>179</v>
@@ -14046,7 +14043,7 @@
         <v>21</v>
       </c>
       <c r="S157" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T157" s="12"/>
     </row>
@@ -14060,13 +14057,13 @@
         <v>Rosemary / Tabby- Cluster M</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D158" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G158" s="12" t="s">
         <v>67</v>
@@ -14097,7 +14094,7 @@
         <v>21</v>
       </c>
       <c r="S158" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T158" s="12"/>
     </row>
@@ -14111,13 +14108,13 @@
         <v>Mila- Cluster Q</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D159" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G159" s="12" t="s">
         <v>67</v>
@@ -14148,7 +14145,7 @@
         <v>21</v>
       </c>
       <c r="S159" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T159" s="12"/>
     </row>
@@ -14162,13 +14159,13 @@
         <v>Mac- Cluster M</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D160" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G160" s="12" t="s">
         <v>71</v>
@@ -14211,13 +14208,13 @@
         <v>Honeybun- Cluster D</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>110</v>
@@ -14229,7 +14226,7 @@
         <v>47</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K161" s="4" t="s">
         <v>21</v>
@@ -14244,11 +14241,11 @@
         <v>25</v>
       </c>
       <c r="Q161" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R161" s="4"/>
       <c r="S161" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T161" s="4"/>
     </row>
@@ -14262,13 +14259,13 @@
         <v>Pepper E- Cluster D</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>83</v>
@@ -14280,7 +14277,7 @@
         <v>47</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K162" s="4" t="s">
         <v>21</v>
@@ -14295,11 +14292,11 @@
         <v>25</v>
       </c>
       <c r="Q162" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R162" s="4"/>
       <c r="S162" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T162" s="4"/>
     </row>
@@ -14313,13 +14310,13 @@
         <v>Trixi- Cluster D</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>41</v>
@@ -14331,7 +14328,7 @@
         <v>47</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K163" s="4" t="s">
         <v>21</v>
@@ -14346,11 +14343,11 @@
         <v>25</v>
       </c>
       <c r="Q163" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R163" s="4"/>
       <c r="S163" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T163" s="4"/>
     </row>
@@ -14364,13 +14361,13 @@
         <v>Harold- Cluster H</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>116</v>
@@ -14382,7 +14379,7 @@
         <v>47</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K164" s="4" t="s">
         <v>59</v>
@@ -14397,7 +14394,7 @@
         <v>25</v>
       </c>
       <c r="Q164" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R164" s="4"/>
       <c r="S164" s="4"/>
@@ -14413,13 +14410,13 @@
         <v>Chips- Cluster E</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>116</v>
@@ -14431,7 +14428,7 @@
         <v>47</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K165" s="4" t="s">
         <v>21</v>
@@ -14446,11 +14443,11 @@
         <v>25</v>
       </c>
       <c r="Q165" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R165" s="4"/>
       <c r="S165" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T165" s="4"/>
     </row>
@@ -14464,13 +14461,13 @@
         <v>Hank- Cluster H</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>28</v>
@@ -14482,7 +14479,7 @@
         <v>47</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K166" s="4" t="s">
         <v>21</v>
@@ -14497,11 +14494,11 @@
         <v>25</v>
       </c>
       <c r="Q166" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R166" s="4"/>
       <c r="S166" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T166" s="4"/>
     </row>
@@ -14515,13 +14512,13 @@
         <v>Henna- Cluster H</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>67</v>
@@ -14533,7 +14530,7 @@
         <v>47</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K167" s="4" t="s">
         <v>21</v>
@@ -14548,11 +14545,11 @@
         <v>25</v>
       </c>
       <c r="Q167" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R167" s="4"/>
       <c r="S167" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T167" s="4"/>
     </row>
@@ -14566,11 +14563,11 @@
         <v>Icky- Cluster I</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>67</v>
@@ -14582,7 +14579,7 @@
         <v>68</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K168" s="4" t="s">
         <v>59</v>
@@ -14597,7 +14594,7 @@
         <v>25</v>
       </c>
       <c r="Q168" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R168" s="4"/>
       <c r="S168" s="4"/>
@@ -14613,11 +14610,11 @@
         <v>Iggy- Cluster I</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>67</v>
@@ -14629,7 +14626,7 @@
         <v>68</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K169" s="4" t="s">
         <v>59</v>
@@ -14644,7 +14641,7 @@
         <v>25</v>
       </c>
       <c r="Q169" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R169" s="4"/>
       <c r="S169" s="4"/>
@@ -14660,13 +14657,13 @@
         <v>Ines- Cluster I</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>67</v>
@@ -14678,7 +14675,7 @@
         <v>47</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K170" s="4" t="s">
         <v>59</v>
@@ -14693,7 +14690,7 @@
         <v>25</v>
       </c>
       <c r="Q170" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R170" s="4"/>
       <c r="S170" s="4"/>
@@ -14709,13 +14706,13 @@
         <v>Hazel- Cluster H</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>28</v>
@@ -14727,7 +14724,7 @@
         <v>47</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K171" s="4" t="s">
         <v>21</v>
@@ -14742,11 +14739,11 @@
         <v>25</v>
       </c>
       <c r="Q171" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R171" s="4"/>
       <c r="S171" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T171" s="4"/>
     </row>
@@ -14760,13 +14757,13 @@
         <v>Guy- Cluster G</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>67</v>
@@ -14778,7 +14775,7 @@
         <v>47</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K172" s="4" t="s">
         <v>59</v>
@@ -14807,13 +14804,13 @@
         <v>Dam- Cluster M</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>57</v>
@@ -14825,7 +14822,7 @@
         <v>47</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K173" s="4" t="s">
         <v>21</v>
@@ -14842,7 +14839,7 @@
       <c r="Q173" s="4"/>
       <c r="R173" s="4"/>
       <c r="S173" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T173" s="4"/>
     </row>
@@ -14856,13 +14853,13 @@
         <v>Betsy- Cluster B</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>124</v>
@@ -14874,7 +14871,7 @@
         <v>47</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K174" s="4" t="s">
         <v>21</v>
@@ -14889,11 +14886,11 @@
         <v>25</v>
       </c>
       <c r="Q174" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R174" s="4"/>
       <c r="S174" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T174" s="4"/>
     </row>
@@ -14907,13 +14904,13 @@
         <v>Bea- Cluster B</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>124</v>
@@ -14925,7 +14922,7 @@
         <v>47</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K175" s="4" t="s">
         <v>21</v>
@@ -14940,11 +14937,11 @@
         <v>25</v>
       </c>
       <c r="Q175" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R175" s="4"/>
       <c r="S175" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T175" s="4"/>
     </row>
@@ -14958,16 +14955,16 @@
         <v>Rio- Cluster Q</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H176" s="4" t="s">
         <v>42</v>
@@ -14985,13 +14982,13 @@
       <c r="M176" s="4"/>
       <c r="N176" s="5"/>
       <c r="O176" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="P176" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q176" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="P176" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q176" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="R176" s="4"/>
       <c r="S176" s="4"/>
@@ -15007,11 +15004,11 @@
         <v>River- Cluster Q</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>67</v>
@@ -15032,7 +15029,7 @@
       <c r="M177" s="4"/>
       <c r="N177" s="5"/>
       <c r="O177" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P177" s="4" t="s">
         <v>25</v>
@@ -15052,11 +15049,11 @@
         <v>Rain- Cluster Q</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>57</v>
@@ -15077,7 +15074,7 @@
       <c r="M178" s="4"/>
       <c r="N178" s="5"/>
       <c r="O178" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P178" s="4" t="s">
         <v>25</v>
@@ -15097,13 +15094,13 @@
         <v>Tortoise- Cluster C</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>67</v>
@@ -15115,7 +15112,7 @@
         <v>47</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K179" s="4" t="s">
         <v>21</v>
@@ -15130,11 +15127,11 @@
         <v>25</v>
       </c>
       <c r="Q179" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R179" s="4"/>
       <c r="S179" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T179" s="4"/>
     </row>
@@ -15148,13 +15145,13 @@
         <v>Madame- Cluster N</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>116</v>
@@ -15166,7 +15163,7 @@
         <v>47</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K180" s="4" t="s">
         <v>21</v>
@@ -15183,7 +15180,7 @@
       <c r="Q180" s="4"/>
       <c r="R180" s="4"/>
       <c r="S180" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T180" s="4"/>
     </row>
@@ -15197,13 +15194,13 @@
         <v>Blacky N- Cluster N</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>57</v>
@@ -15215,7 +15212,7 @@
         <v>47</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K181" s="4" t="s">
         <v>21</v>
@@ -15232,7 +15229,7 @@
       <c r="Q181" s="4"/>
       <c r="R181" s="4"/>
       <c r="S181" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T181" s="4"/>
     </row>
@@ -15246,13 +15243,13 @@
         <v>Patch- Cluster N</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>67</v>
@@ -15264,7 +15261,7 @@
         <v>47</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K182" s="4" t="s">
         <v>21</v>
@@ -15281,7 +15278,7 @@
       <c r="Q182" s="4"/>
       <c r="R182" s="4"/>
       <c r="S182" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T182" s="4"/>
     </row>
@@ -15295,13 +15292,13 @@
         <v>Mistery- Cluster M</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>124</v>
@@ -15322,7 +15319,7 @@
       <c r="M183" s="4"/>
       <c r="N183" s="5"/>
       <c r="O183" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P183" s="4" t="s">
         <v>25</v>
@@ -15344,13 +15341,13 @@
         <v>Dee Dee- Cluster D</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>181</v>
@@ -15371,17 +15368,17 @@
       <c r="M184" s="4"/>
       <c r="N184" s="5"/>
       <c r="O184" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P184" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q184" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R184" s="4"/>
       <c r="S184" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T184" s="4"/>
     </row>
@@ -15395,13 +15392,13 @@
         <v>Dirk- Cluster D</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D185" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G185" s="12" t="s">
         <v>67</v>
@@ -15432,7 +15429,7 @@
         <v>21</v>
       </c>
       <c r="S185" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T185" s="12"/>
     </row>
@@ -15446,13 +15443,13 @@
         <v>Donald- Cluster D</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D186" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G186" s="12" t="s">
         <v>67</v>
@@ -15483,7 +15480,7 @@
         <v>21</v>
       </c>
       <c r="S186" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T186" s="12"/>
     </row>
@@ -15497,13 +15494,13 @@
         <v>Dougal- Cluster D</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G187" s="12" t="s">
         <v>67</v>
@@ -15534,7 +15531,7 @@
         <v>21</v>
       </c>
       <c r="S187" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T187" s="12"/>
     </row>
@@ -15548,13 +15545,13 @@
         <v>Dora- Cluster D</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D188" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G188" s="12" t="s">
         <v>67</v>
@@ -15585,7 +15582,7 @@
         <v>21</v>
       </c>
       <c r="S188" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T188" s="12"/>
     </row>
@@ -15599,13 +15596,13 @@
         <v>Silver Bush Mummy- Cluster D</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="4" t="s">
@@ -15622,7 +15619,7 @@
       <c r="M189" s="4"/>
       <c r="N189" s="5"/>
       <c r="O189" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P189" s="4" t="s">
         <v>25</v>
@@ -15642,13 +15639,13 @@
         <v>Holly- Cluster H</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>67</v>
@@ -15667,17 +15664,17 @@
       <c r="M190" s="4"/>
       <c r="N190" s="5"/>
       <c r="O190" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P190" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q190" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="R190" s="4"/>
       <c r="S190" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T190" s="4"/>
     </row>
@@ -15691,16 +15688,16 @@
         <v>Hanna- Cluster H</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D191" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G191" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H191" s="12" t="s">
         <v>18</v>
@@ -15724,13 +15721,13 @@
         <v>25</v>
       </c>
       <c r="Q191" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R191" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S191" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T191" s="12"/>
     </row>
@@ -15744,13 +15741,13 @@
         <v>Missie- Cluster E</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>41</v>
@@ -15779,7 +15776,7 @@
       <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
       <c r="S192" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T192" s="4"/>
     </row>
@@ -15793,13 +15790,13 @@
         <v>Ginger E- Cluster E</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>33</v>
@@ -15828,7 +15825,7 @@
       <c r="Q193" s="4"/>
       <c r="R193" s="4"/>
       <c r="S193" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T193" s="4"/>
     </row>
@@ -15842,13 +15839,13 @@
         <v>Jumeirah- Cluster N</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D194" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G194" s="12" t="s">
         <v>57</v>
@@ -15875,13 +15872,13 @@
         <v>25</v>
       </c>
       <c r="Q194" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R194" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S194" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T194" s="12"/>
     </row>
@@ -15895,13 +15892,13 @@
         <v>Torti/ Vivian- Cluster V</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G195" s="12" t="s">
         <v>83</v>
@@ -15922,7 +15919,7 @@
       <c r="M195" s="12"/>
       <c r="N195" s="14"/>
       <c r="O195" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P195" s="12" t="s">
         <v>25</v>

--- a/data/JLT_CatLogs.xlsx
+++ b/data/JLT_CatLogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudhendu-BCT\Documents\Projects\self\JLT_Cats\git\jlt-cat-tnr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50997CC7-6A59-41CC-BA21-98BF9D5994F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C62CD3D-17B3-45AF-94EB-69810FC3967D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2DE1B5A-9FFD-406D-804B-F18313662538}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="378">
   <si>
     <t>NAME</t>
   </si>
@@ -727,63 +727,24 @@
     <t>SPONSOR</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>JLT Residents</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>Crossed the rainbow bridge</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Bullied by other cats, fostered by Raka and adopted in JLT.</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Being fostered by Raka- Microchipped (784095800002337) - Adopted in London</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>Dumped in the bushes near Tim Hortons, adopted in JLT</t>
   </si>
   <si>
     <t>Lost his left eye due an infection, soon will be adopted in UK.</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>Zoom</t>
   </si>
   <si>
@@ -793,9 +754,6 @@
     <t>Chewy</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Let Jacob</t>
   </si>
   <si>
@@ -814,18 +772,9 @@
     <t>Before Yasmin</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>Roni</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Meowster</t>
   </si>
   <si>
@@ -868,9 +817,6 @@
     <t>Snowflake</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>Simone</t>
   </si>
   <si>
@@ -910,18 +856,12 @@
     <t>Carl</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Opposite of Hanoi, loud but very shy</t>
   </si>
   <si>
     <t>Joe</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Moves between B and C</t>
   </si>
   <si>
@@ -934,9 +874,6 @@
     <t>Filli</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Found in Cluster F with a bad eye infection, fostered and treated by Raka and now adopted in Germany.</t>
   </si>
   <si>
@@ -961,9 +898,6 @@
     <t>Eli</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Found stuck in a car engine, adopted in Dubai.</t>
   </si>
   <si>
@@ -988,9 +922,6 @@
     <t>Wendy</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>Wilson</t>
   </si>
   <si>
@@ -1156,9 +1087,6 @@
     <t>Icky</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>2 monthds old</t>
   </si>
   <si>
@@ -1222,9 +1150,6 @@
     <t>Madame</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Nic</t>
   </si>
   <si>
@@ -1285,7 +1210,28 @@
     <t>Torti/ Vivian</t>
   </si>
   <si>
-    <t>deleted/ duplication</t>
+    <t>Cluster J</t>
+  </si>
+  <si>
+    <t>Cluster C</t>
+  </si>
+  <si>
+    <t>Cluster B</t>
+  </si>
+  <si>
+    <t>Cluster F</t>
+  </si>
+  <si>
+    <t>Cluster E</t>
+  </si>
+  <si>
+    <t>Cluster W</t>
+  </si>
+  <si>
+    <t>Cluster I</t>
+  </si>
+  <si>
+    <t>Cluster N</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1331,13 +1277,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1422,7 +1361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1499,7 +1438,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6120,17 +6058,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75636529-9248-4C28-9B8C-5C9130528913}">
   <dimension ref="A1:U195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B182" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="10" max="10" width="15.140625" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
@@ -6141,9 +6079,10 @@
     <col min="18" max="18" width="11.5703125" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
     <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
@@ -6198,20 +6137,23 @@
       <c r="R1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>208</v>
       </c>
       <c r="T1" s="18" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="str">
-        <f>_xlfn.CONCAT(C2, "- Cluster ",E2)</f>
-        <v>Gray- Cluster P</v>
+      <c r="B2" s="20" t="e">
+        <f>_xlfn.CONCAT(C2, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -6220,7 +6162,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
@@ -6256,18 +6198,18 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <f>+A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="str">
-        <f t="shared" ref="B3:B66" si="0">_xlfn.CONCAT(C3, "- Cluster ",E3)</f>
-        <v>Jake- Cluster Q</v>
+      <c r="B3" s="20" t="e">
+        <f>_xlfn.CONCAT(C3, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>26</v>
@@ -6275,8 +6217,8 @@
       <c r="D3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>211</v>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="23" t="s">
@@ -6307,25 +6249,25 @@
         <v>24</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q3" s="23" t="s">
         <v>31</v>
       </c>
       <c r="R3" s="23"/>
       <c r="S3" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T3" s="23"/>
     </row>
-    <row r="4" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
-        <f t="shared" ref="A4:A67" si="1">+A3+1</f>
+        <f t="shared" ref="A4:A67" si="0">+A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Sandy- Cluster Q</v>
+      <c r="B4" s="20" t="e">
+        <f>_xlfn.CONCAT(C4, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -6334,7 +6276,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -6370,18 +6312,18 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Scrappy- Cluster Q</v>
+      <c r="B5" s="20" t="e">
+        <f>_xlfn.CONCAT(C5, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>36</v>
@@ -6390,7 +6332,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -6426,18 +6368,18 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Lily- Cluster R</v>
+      <c r="B6" s="20" t="e">
+        <f>_xlfn.CONCAT(C6, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>38</v>
@@ -6446,7 +6388,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="4" t="s">
@@ -6478,18 +6420,18 @@
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Daisy- Cluster S</v>
+      <c r="B7" s="20" t="e">
+        <f>_xlfn.CONCAT(C7, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>45</v>
@@ -6497,8 +6439,8 @@
       <c r="D7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>214</v>
+      <c r="E7" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>46</v>
@@ -6534,18 +6476,18 @@
         <v>21</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T7" s="12"/>
     </row>
-    <row r="8" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Rosie- Cluster S</v>
+      <c r="B8" s="20" t="e">
+        <f>_xlfn.CONCAT(C8, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>50</v>
@@ -6553,8 +6495,8 @@
       <c r="D8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>214</v>
+      <c r="E8" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>46</v>
@@ -6596,18 +6538,18 @@
         <v>21</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Ray- Cluster S</v>
+      <c r="B9" s="20" t="e">
+        <f>_xlfn.CONCAT(C9, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>56</v>
@@ -6615,8 +6557,8 @@
       <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>214</v>
+      <c r="E9" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>46</v>
@@ -6650,14 +6592,14 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Old Ben- Cluster S</v>
+      <c r="B10" s="20" t="e">
+        <f>_xlfn.CONCAT(C10, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>60</v>
@@ -6666,7 +6608,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -6696,18 +6638,18 @@
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Pip Squeek- Cluster Q</v>
+      <c r="B11" s="20" t="e">
+        <f>_xlfn.CONCAT(C11, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>65</v>
@@ -6715,8 +6657,8 @@
       <c r="D11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>211</v>
+      <c r="E11" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>66</v>
@@ -6752,14 +6694,14 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
     </row>
-    <row r="12" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Nahi- Cluster Q</v>
+      <c r="B12" s="20" t="e">
+        <f>_xlfn.CONCAT(C12, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>70</v>
@@ -6767,8 +6709,8 @@
       <c r="D12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>211</v>
+      <c r="E12" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
@@ -6800,14 +6742,14 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
     </row>
-    <row r="13" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Beyoncé- Cluster Q</v>
+      <c r="B13" s="20" t="e">
+        <f>_xlfn.CONCAT(C13, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>72</v>
@@ -6816,7 +6758,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -6854,18 +6796,18 @@
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Linda- Cluster Q</v>
+      <c r="B14" s="20" t="e">
+        <f>_xlfn.CONCAT(C14, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>74</v>
@@ -6873,8 +6815,8 @@
       <c r="D14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>211</v>
+      <c r="E14" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
@@ -6906,14 +6848,14 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Snowy- Cluster P</v>
+      <c r="B15" s="20" t="e">
+        <f>_xlfn.CONCAT(C15, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>76</v>
@@ -6922,7 +6864,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
@@ -6956,18 +6898,18 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Blacky- Cluster P</v>
+      <c r="B16" s="20" t="e">
+        <f>_xlfn.CONCAT(C16, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>78</v>
@@ -6975,8 +6917,8 @@
       <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>209</v>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
@@ -7010,18 +6952,18 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Brandan- Cluster P</v>
+      <c r="B17" s="20" t="e">
+        <f>_xlfn.CONCAT(C17, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>79</v>
@@ -7029,8 +6971,8 @@
       <c r="D17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>209</v>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
@@ -7064,18 +7006,18 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Tinker- Cluster P</v>
+      <c r="B18" s="20" t="e">
+        <f>_xlfn.CONCAT(C18, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>80</v>
@@ -7084,7 +7026,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
@@ -7120,18 +7062,18 @@
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Binker- Cluster P</v>
+      <c r="B19" s="20" t="e">
+        <f>_xlfn.CONCAT(C19, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>82</v>
@@ -7140,7 +7082,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
@@ -7172,18 +7114,18 @@
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Dolly- Cluster P</v>
+      <c r="B20" s="20" t="e">
+        <f>_xlfn.CONCAT(C20, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>85</v>
@@ -7192,7 +7134,7 @@
         <v>39</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>66</v>
@@ -7230,18 +7172,18 @@
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Cole- Cluster P</v>
+      <c r="B21" s="20" t="e">
+        <f>_xlfn.CONCAT(C21, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>87</v>
@@ -7250,7 +7192,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
@@ -7282,18 +7224,18 @@
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Pepper- Cluster P</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="e">
+        <f>_xlfn.CONCAT(C22, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>89</v>
@@ -7301,8 +7243,8 @@
       <c r="D22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>209</v>
+      <c r="E22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
@@ -7330,24 +7272,24 @@
         <v>25</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R22" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T22" s="12"/>
     </row>
     <row r="23" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Cleo- Cluster O</v>
+      <c r="B23" s="20" t="e">
+        <f>_xlfn.CONCAT(C23, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>90</v>
@@ -7356,7 +7298,7 @@
         <v>39</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>91</v>
@@ -7394,18 +7336,18 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Buster- Cluster P</v>
+      <c r="B24" s="20" t="e">
+        <f>_xlfn.CONCAT(C24, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>93</v>
@@ -7414,7 +7356,7 @@
         <v>15</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>94</v>
@@ -7446,18 +7388,18 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Jeez- Cluster P</v>
+      <c r="B25" s="20" t="e">
+        <f>_xlfn.CONCAT(C25, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>95</v>
@@ -7466,7 +7408,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>94</v>
@@ -7498,18 +7440,18 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Fluffy Tail- Cluster P</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="20" t="e">
+        <f>_xlfn.CONCAT(C26, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>96</v>
@@ -7518,7 +7460,7 @@
         <v>39</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>94</v>
@@ -7550,18 +7492,18 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Felix (Stallion)- Cluster P</v>
+      <c r="B27" s="20" t="e">
+        <f>_xlfn.CONCAT(C27, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>97</v>
@@ -7570,7 +7512,7 @@
         <v>15</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>94</v>
@@ -7604,18 +7546,18 @@
       </c>
       <c r="R27" s="4"/>
       <c r="S27" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Ben- Cluster P</v>
+      <c r="B28" s="20" t="e">
+        <f>_xlfn.CONCAT(C28, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>99</v>
@@ -7624,7 +7566,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>94</v>
@@ -7656,18 +7598,18 @@
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Bruiser- Cluster P</v>
+      <c r="B29" s="20" t="e">
+        <f>_xlfn.CONCAT(C29, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>101</v>
@@ -7676,7 +7618,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>94</v>
@@ -7710,18 +7652,18 @@
       </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Ed- Cluster Q</v>
+      <c r="B30" s="20" t="e">
+        <f>_xlfn.CONCAT(C30, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>104</v>
@@ -7730,7 +7672,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>94</v>
@@ -7760,18 +7702,18 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Calvin- Cluster L</v>
+      <c r="B31" s="20" t="e">
+        <f>_xlfn.CONCAT(C31, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>105</v>
@@ -7780,7 +7722,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
@@ -7816,18 +7758,18 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Billy- Cluster P</v>
+      <c r="B32" s="20" t="e">
+        <f>_xlfn.CONCAT(C32, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>108</v>
@@ -7836,7 +7778,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>109</v>
@@ -7868,18 +7810,18 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Luna- Cluster Q</v>
+      <c r="B33" s="20" t="e">
+        <f>_xlfn.CONCAT(C33, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>112</v>
@@ -7888,7 +7830,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>94</v>
@@ -7920,18 +7862,18 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Omar- Cluster Q</v>
+      <c r="B34" s="20" t="e">
+        <f>_xlfn.CONCAT(C34, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>113</v>
@@ -7940,7 +7882,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
@@ -7974,17 +7916,17 @@
     </row>
     <row r="35" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster A</v>
+      <c r="B35" s="20" t="e">
+        <f>_xlfn.CONCAT(C35, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="4" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
@@ -8012,12 +7954,12 @@
     </row>
     <row r="36" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Angel- Cluster A</v>
+      <c r="B36" s="20" t="e">
+        <f>_xlfn.CONCAT(C36, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>117</v>
@@ -8026,7 +7968,7 @@
         <v>39</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -8060,23 +8002,23 @@
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster A</v>
+      <c r="B37" s="20" t="e">
+        <f>_xlfn.CONCAT(C37, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="4" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
@@ -8104,17 +8046,17 @@
     </row>
     <row r="38" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster M</v>
+      <c r="B38" s="20" t="e">
+        <f>_xlfn.CONCAT(C38, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
@@ -8142,17 +8084,17 @@
     </row>
     <row r="39" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster M</v>
+      <c r="B39" s="20" t="e">
+        <f>_xlfn.CONCAT(C39, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
@@ -8180,17 +8122,17 @@
     </row>
     <row r="40" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster M</v>
+      <c r="B40" s="20" t="e">
+        <f>_xlfn.CONCAT(C40, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
@@ -8218,17 +8160,17 @@
     </row>
     <row r="41" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster M</v>
+      <c r="B41" s="20" t="e">
+        <f>_xlfn.CONCAT(C41, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
@@ -8256,12 +8198,12 @@
     </row>
     <row r="42" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Mimi- Cluster M</v>
+      <c r="B42" s="20" t="e">
+        <f>_xlfn.CONCAT(C42, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>122</v>
@@ -8270,7 +8212,7 @@
         <v>39</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
@@ -8304,23 +8246,23 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster M</v>
+      <c r="B43" s="20" t="e">
+        <f>_xlfn.CONCAT(C43, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
@@ -8348,17 +8290,17 @@
     </row>
     <row r="44" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster M</v>
+      <c r="B44" s="20" t="e">
+        <f>_xlfn.CONCAT(C44, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="17"/>
       <c r="E44" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
@@ -8386,17 +8328,17 @@
     </row>
     <row r="45" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster M</v>
+      <c r="B45" s="20" t="e">
+        <f>_xlfn.CONCAT(C45, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
@@ -8424,17 +8366,17 @@
     </row>
     <row r="46" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster M</v>
+      <c r="B46" s="20" t="e">
+        <f>_xlfn.CONCAT(C46, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="17"/>
       <c r="E46" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
@@ -8462,17 +8404,17 @@
     </row>
     <row r="47" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster M</v>
+      <c r="B47" s="20" t="e">
+        <f>_xlfn.CONCAT(C47, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
@@ -8500,17 +8442,17 @@
     </row>
     <row r="48" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster M</v>
+      <c r="B48" s="20" t="e">
+        <f>_xlfn.CONCAT(C48, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="17"/>
       <c r="E48" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
@@ -8538,17 +8480,17 @@
     </row>
     <row r="49" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster L</v>
+      <c r="B49" s="20" t="e">
+        <f>_xlfn.CONCAT(C49, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="4" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
@@ -8578,17 +8520,17 @@
     </row>
     <row r="50" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster L</v>
+      <c r="B50" s="20" t="e">
+        <f>_xlfn.CONCAT(C50, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
       <c r="E50" s="4" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
@@ -8618,17 +8560,17 @@
     </row>
     <row r="51" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster L</v>
+      <c r="B51" s="20" t="e">
+        <f>_xlfn.CONCAT(C51, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="17"/>
       <c r="E51" s="4" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
@@ -8656,17 +8598,17 @@
     </row>
     <row r="52" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster L</v>
+      <c r="B52" s="20" t="e">
+        <f>_xlfn.CONCAT(C52, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="17"/>
       <c r="E52" s="4" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
@@ -8694,17 +8636,17 @@
     </row>
     <row r="53" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster L</v>
+      <c r="B53" s="20" t="e">
+        <f>_xlfn.CONCAT(C53, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="17"/>
       <c r="E53" s="4" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
@@ -8732,17 +8674,17 @@
     </row>
     <row r="54" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster L</v>
+      <c r="B54" s="20" t="e">
+        <f>_xlfn.CONCAT(C54, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="17"/>
       <c r="E54" s="4" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
@@ -8770,17 +8712,17 @@
     </row>
     <row r="55" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster L</v>
+      <c r="B55" s="20" t="e">
+        <f>_xlfn.CONCAT(C55, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="17"/>
       <c r="E55" s="4" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
@@ -8808,17 +8750,17 @@
     </row>
     <row r="56" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>- Cluster L</v>
+      <c r="B56" s="20" t="e">
+        <f>_xlfn.CONCAT(C56, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="17"/>
       <c r="E56" s="4" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
@@ -8846,12 +8788,12 @@
     </row>
     <row r="57" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Polly- Cluster P</v>
+      <c r="B57" s="20" t="e">
+        <f>_xlfn.CONCAT(C57, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>126</v>
@@ -8859,8 +8801,8 @@
       <c r="D57" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>209</v>
+      <c r="E57" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12" t="s">
@@ -8888,24 +8830,24 @@
         <v>25</v>
       </c>
       <c r="Q57" s="12" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="R57" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S57" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T57" s="12"/>
     </row>
     <row r="58" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Gayle- Cluster G</v>
+      <c r="B58" s="20" t="e">
+        <f>_xlfn.CONCAT(C58, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>128</v>
@@ -8914,7 +8856,7 @@
         <v>39</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
@@ -8950,18 +8892,18 @@
       </c>
       <c r="R58" s="4"/>
       <c r="S58" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T58" s="4"/>
     </row>
     <row r="59" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Gigi- Cluster H</v>
+      <c r="B59" s="20" t="e">
+        <f>_xlfn.CONCAT(C59, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>132</v>
@@ -8970,7 +8912,7 @@
         <v>39</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
@@ -9008,18 +8950,18 @@
       </c>
       <c r="R59" s="4"/>
       <c r="S59" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T59" s="4"/>
     </row>
     <row r="60" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Gina- Cluster G</v>
+      <c r="B60" s="20" t="e">
+        <f>_xlfn.CONCAT(C60, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>133</v>
@@ -9028,7 +8970,7 @@
         <v>39</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
@@ -9066,18 +9008,18 @@
       </c>
       <c r="R60" s="4"/>
       <c r="S60" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T60" s="4"/>
     </row>
     <row r="61" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>George- Cluster G</v>
+      <c r="B61" s="20" t="e">
+        <f>_xlfn.CONCAT(C61, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>135</v>
@@ -9085,8 +9027,8 @@
       <c r="D61" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="23" t="s">
-        <v>221</v>
+      <c r="E61" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="23" t="s">
@@ -9117,25 +9059,25 @@
         <v>24</v>
       </c>
       <c r="P61" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q61" s="23" t="s">
         <v>136</v>
       </c>
       <c r="R61" s="23"/>
       <c r="S61" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T61" s="23"/>
     </row>
     <row r="62" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Garth- Cluster G</v>
+      <c r="B62" s="20" t="e">
+        <f>_xlfn.CONCAT(C62, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>137</v>
@@ -9144,7 +9086,7 @@
         <v>15</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
@@ -9182,18 +9124,18 @@
       </c>
       <c r="R62" s="4"/>
       <c r="S62" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T62" s="4"/>
     </row>
     <row r="63" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Gerry- Cluster G</v>
+      <c r="B63" s="20" t="e">
+        <f>_xlfn.CONCAT(C63, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>139</v>
@@ -9202,7 +9144,7 @@
         <v>15</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
@@ -9240,18 +9182,18 @@
       </c>
       <c r="R63" s="4"/>
       <c r="S63" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T63" s="4"/>
     </row>
     <row r="64" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Andante- Cluster A</v>
+      <c r="B64" s="20" t="e">
+        <f>_xlfn.CONCAT(C64, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>140</v>
@@ -9260,7 +9202,7 @@
         <v>15</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
@@ -9294,18 +9236,18 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T64" s="4"/>
     </row>
     <row r="65" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Roger- Cluster Q</v>
+      <c r="B65" s="20" t="e">
+        <f>_xlfn.CONCAT(C65, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>141</v>
@@ -9314,7 +9256,7 @@
         <v>15</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
@@ -9346,18 +9288,18 @@
       </c>
       <c r="R65" s="4"/>
       <c r="S65" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T65" s="4"/>
     </row>
     <row r="66" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Potter- Cluster P</v>
+      <c r="B66" s="20" t="e">
+        <f>_xlfn.CONCAT(C66, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>143</v>
@@ -9366,7 +9308,7 @@
         <v>15</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
@@ -9410,12 +9352,12 @@
     </row>
     <row r="67" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67" s="20" t="str">
-        <f t="shared" ref="B67:B130" si="2">_xlfn.CONCAT(C67, "- Cluster ",E67)</f>
-        <v>Pablo- Cluster P</v>
+      <c r="B67" s="20" t="e">
+        <f>_xlfn.CONCAT(C67, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>147</v>
@@ -9424,7 +9366,7 @@
         <v>15</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
@@ -9466,12 +9408,12 @@
     </row>
     <row r="68" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21">
-        <f t="shared" ref="A68:A131" si="3">+A67+1</f>
+        <f t="shared" ref="A68:A131" si="1">+A67+1</f>
         <v>67</v>
       </c>
-      <c r="B68" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Dorothy- Cluster V</v>
+      <c r="B68" s="20" t="e">
+        <f>_xlfn.CONCAT(C68, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>149</v>
@@ -9479,8 +9421,8 @@
       <c r="D68" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>223</v>
+      <c r="E68" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="12" t="s">
@@ -9512,18 +9454,18 @@
         <v>21</v>
       </c>
       <c r="S68" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T68" s="12"/>
     </row>
     <row r="69" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Patrick- Cluster P</v>
+      <c r="B69" s="20" t="e">
+        <f>_xlfn.CONCAT(C69, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>151</v>
@@ -9532,7 +9474,7 @@
         <v>15</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
@@ -9566,12 +9508,12 @@
     </row>
     <row r="70" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Phoebe- Cluster P</v>
+      <c r="B70" s="20" t="e">
+        <f>_xlfn.CONCAT(C70, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>152</v>
@@ -9580,7 +9522,7 @@
         <v>39</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
@@ -9610,18 +9552,18 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T70" s="4"/>
     </row>
     <row r="71" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Rose/ Cloud- Cluster Q</v>
+      <c r="B71" s="20" t="e">
+        <f>_xlfn.CONCAT(C71, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>154</v>
@@ -9629,8 +9571,8 @@
       <c r="D71" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>211</v>
+      <c r="E71" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12" t="s">
@@ -9658,24 +9600,24 @@
         <v>25</v>
       </c>
       <c r="Q71" s="12" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="R71" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S71" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T71" s="12"/>
     </row>
     <row r="72" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Quentin- Cluster Q</v>
+      <c r="B72" s="20" t="e">
+        <f>_xlfn.CONCAT(C72, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>156</v>
@@ -9683,8 +9625,8 @@
       <c r="D72" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="12" t="s">
-        <v>211</v>
+      <c r="E72" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12" t="s">
@@ -9722,12 +9664,12 @@
     </row>
     <row r="73" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Queenie/ Lily- Cluster Q</v>
+      <c r="B73" s="20" t="e">
+        <f>_xlfn.CONCAT(C73, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>158</v>
@@ -9735,8 +9677,8 @@
       <c r="D73" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E73" s="12" t="s">
-        <v>211</v>
+      <c r="E73" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12" t="s">
@@ -9774,12 +9716,12 @@
     </row>
     <row r="74" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B74" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Rodney- Cluster Q</v>
+      <c r="B74" s="20" t="e">
+        <f>_xlfn.CONCAT(C74, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>160</v>
@@ -9788,7 +9730,7 @@
         <v>15</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
@@ -9824,12 +9766,12 @@
     </row>
     <row r="75" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B75" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Pete- Cluster P</v>
+      <c r="B75" s="20" t="e">
+        <f>_xlfn.CONCAT(C75, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>162</v>
@@ -9837,8 +9779,8 @@
       <c r="D75" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="12" t="s">
-        <v>209</v>
+      <c r="E75" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="12" t="s">
@@ -9882,12 +9824,12 @@
     </row>
     <row r="76" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Mickie- Cluster M</v>
+      <c r="B76" s="20" t="e">
+        <f>_xlfn.CONCAT(C76, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>163</v>
@@ -9896,7 +9838,7 @@
         <v>15</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4" t="s">
@@ -9938,12 +9880,12 @@
     </row>
     <row r="77" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Lucy- Cluster L</v>
+      <c r="B77" s="20" t="e">
+        <f>_xlfn.CONCAT(C77, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>164</v>
@@ -9952,7 +9894,7 @@
         <v>39</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
@@ -9994,12 +9936,12 @@
     </row>
     <row r="78" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Ruby- Cluster Q</v>
+      <c r="B78" s="20" t="e">
+        <f>_xlfn.CONCAT(C78, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>165</v>
@@ -10007,8 +9949,8 @@
       <c r="D78" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>211</v>
+      <c r="E78" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12" t="s">
@@ -10054,12 +9996,12 @@
     </row>
     <row r="79" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B79" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Moby- Cluster M</v>
+      <c r="B79" s="20" t="e">
+        <f>_xlfn.CONCAT(C79, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>167</v>
@@ -10067,8 +10009,8 @@
       <c r="D79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E79" s="12" t="s">
-        <v>219</v>
+      <c r="E79" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12" t="s">
@@ -10096,7 +10038,7 @@
         <v>25</v>
       </c>
       <c r="Q79" s="12" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R79" s="12" t="s">
         <v>21</v>
@@ -10106,12 +10048,12 @@
     </row>
     <row r="80" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B80" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Uffy- Cluster U</v>
+      <c r="B80" s="20" t="e">
+        <f>_xlfn.CONCAT(C80, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>169</v>
@@ -10120,7 +10062,7 @@
         <v>15</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
@@ -10150,18 +10092,18 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T80" s="4"/>
     </row>
-    <row r="81" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Tarker- Cluster T</v>
+      <c r="B81" s="20" t="e">
+        <f>_xlfn.CONCAT(C81, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>171</v>
@@ -10170,7 +10112,7 @@
         <v>15</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
@@ -10202,14 +10144,14 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
     </row>
-    <row r="82" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Uma- Cluster U</v>
+      <c r="B82" s="20" t="e">
+        <f>_xlfn.CONCAT(C82, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>173</v>
@@ -10218,7 +10160,7 @@
         <v>39</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4" t="s">
@@ -10248,18 +10190,18 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Tshop- Cluster T</v>
+      <c r="B83" s="20" t="e">
+        <f>_xlfn.CONCAT(C83, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>174</v>
@@ -10268,7 +10210,7 @@
         <v>15</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
@@ -10298,27 +10240,27 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B84" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Zoom- Cluster V</v>
+      <c r="B84" s="20" t="e">
+        <f>_xlfn.CONCAT(C84, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
@@ -10344,34 +10286,31 @@
         <v>25</v>
       </c>
       <c r="Q84" s="4" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="R84" s="4"/>
       <c r="S84" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T84" s="4"/>
-      <c r="U84" s="26" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B85" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Chewy- Cluster Y</v>
+      <c r="B85" s="20" t="e">
+        <f>_xlfn.CONCAT(C85, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
@@ -10384,7 +10323,7 @@
         <v>47</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>21</v>
@@ -10399,31 +10338,31 @@
         <v>25</v>
       </c>
       <c r="Q85" s="4" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="R85" s="4"/>
       <c r="S85" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B86" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Bonnie- Cluster Y</v>
+      <c r="B86" s="20" t="e">
+        <f>_xlfn.CONCAT(C86, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4" t="s">
@@ -10449,22 +10388,22 @@
         <v>25</v>
       </c>
       <c r="Q86" s="4" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="R86" s="4"/>
       <c r="S86" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B87" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Ballsy- Cluster Y</v>
+      <c r="B87" s="20" t="e">
+        <f>_xlfn.CONCAT(C87, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>182</v>
@@ -10473,7 +10412,7 @@
         <v>15</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4" t="s">
@@ -10503,18 +10442,18 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B88" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Yen- Cluster Y</v>
+      <c r="B88" s="20" t="e">
+        <f>_xlfn.CONCAT(C88, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>184</v>
@@ -10523,7 +10462,7 @@
         <v>15</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4" t="s">
@@ -10551,27 +10490,27 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T88" s="4"/>
     </row>
-    <row r="89" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B89" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Curiosity- Cluster Y</v>
+      <c r="B89" s="20" t="e">
+        <f>_xlfn.CONCAT(C89, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
@@ -10584,7 +10523,7 @@
         <v>47</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>21</v>
@@ -10599,22 +10538,22 @@
         <v>25</v>
       </c>
       <c r="Q89" s="4" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="R89" s="4"/>
       <c r="S89" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T89" s="4"/>
     </row>
-    <row r="90" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B90" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Broken tail- Cluster S</v>
+      <c r="B90" s="20" t="e">
+        <f>_xlfn.CONCAT(C90, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>186</v>
@@ -10623,7 +10562,7 @@
         <v>15</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4" t="s">
@@ -10653,18 +10592,18 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T90" s="4"/>
     </row>
-    <row r="91" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Donnie- Cluster D</v>
+      <c r="B91" s="20" t="e">
+        <f>_xlfn.CONCAT(C91, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>187</v>
@@ -10672,8 +10611,8 @@
       <c r="D91" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="12" t="s">
-        <v>238</v>
+      <c r="E91" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="12" t="s">
@@ -10709,14 +10648,14 @@
       <c r="S91" s="12"/>
       <c r="T91" s="12"/>
     </row>
-    <row r="92" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Kiwi- Cluster K</v>
+      <c r="B92" s="20" t="e">
+        <f>_xlfn.CONCAT(C92, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>190</v>
@@ -10725,7 +10664,7 @@
         <v>39</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="4" t="s">
@@ -10759,18 +10698,18 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T92" s="4"/>
     </row>
-    <row r="93" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B93" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Kimi- Cluster K</v>
+      <c r="B93" s="20" t="e">
+        <f>_xlfn.CONCAT(C93, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>192</v>
@@ -10779,7 +10718,7 @@
         <v>39</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4" t="s">
@@ -10817,23 +10756,23 @@
       </c>
       <c r="T93" s="4"/>
     </row>
-    <row r="94" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B94" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Roni- Cluster Q</v>
+      <c r="B94" s="20" t="e">
+        <f>_xlfn.CONCAT(C94, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E94" s="12" t="s">
-        <v>211</v>
+      <c r="E94" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="12" t="s">
@@ -10867,14 +10806,14 @@
       <c r="S94" s="12"/>
       <c r="T94" s="12"/>
     </row>
-    <row r="95" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B95" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>B&amp;W- Cluster U</v>
+      <c r="B95" s="20" t="e">
+        <f>_xlfn.CONCAT(C95, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>194</v>
@@ -10883,7 +10822,7 @@
         <v>15</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="4" t="s">
@@ -10911,18 +10850,18 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T95" s="4"/>
     </row>
-    <row r="96" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B96" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Miu Miu- Cluster X</v>
+      <c r="B96" s="20" t="e">
+        <f>_xlfn.CONCAT(C96, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>195</v>
@@ -10931,7 +10870,7 @@
         <v>39</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4" t="s">
@@ -10959,18 +10898,18 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T96" s="4"/>
     </row>
     <row r="97" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B97" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Lena- Cluster L</v>
+      <c r="B97" s="20" t="e">
+        <f>_xlfn.CONCAT(C97, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>197</v>
@@ -10978,8 +10917,8 @@
       <c r="D97" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E97" s="12" t="s">
-        <v>217</v>
+      <c r="E97" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="12" t="s">
@@ -11017,12 +10956,12 @@
     </row>
     <row r="98" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B98" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Minnie- Cluster A</v>
+      <c r="B98" s="20" t="e">
+        <f>_xlfn.CONCAT(C98, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>199</v>
@@ -11030,8 +10969,8 @@
       <c r="D98" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E98" s="12" t="s">
-        <v>218</v>
+      <c r="E98" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12" t="s">
@@ -11063,18 +11002,18 @@
         <v>21</v>
       </c>
       <c r="S98" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T98" s="12"/>
     </row>
     <row r="99" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B99" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Lennox- Cluster L</v>
+      <c r="B99" s="20" t="e">
+        <f>_xlfn.CONCAT(C99, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>200</v>
@@ -11083,7 +11022,7 @@
         <v>15</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="4" t="s">
@@ -11125,12 +11064,12 @@
     </row>
     <row r="100" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B100" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Harry- Cluster H</v>
+      <c r="B100" s="20" t="e">
+        <f>_xlfn.CONCAT(C100, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>201</v>
@@ -11139,7 +11078,7 @@
         <v>15</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
@@ -11179,21 +11118,21 @@
     </row>
     <row r="101" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B101" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Meowster- Cluster X</v>
+      <c r="B101" s="20" t="e">
+        <f>_xlfn.CONCAT(C101, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4" t="s">
@@ -11221,18 +11160,18 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T101" s="4"/>
     </row>
     <row r="102" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B102" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Ginger- Cluster X</v>
+      <c r="B102" s="20" t="e">
+        <f>_xlfn.CONCAT(C102, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>33</v>
@@ -11241,7 +11180,7 @@
         <v>15</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>33</v>
@@ -11268,27 +11207,27 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T102" s="4"/>
     </row>
     <row r="103" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B103" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Yara- Cluster Y</v>
+      <c r="B103" s="20" t="e">
+        <f>_xlfn.CONCAT(C103, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>33</v>
@@ -11313,7 +11252,7 @@
         <v>25</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
@@ -11321,21 +11260,21 @@
     </row>
     <row r="104" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B104" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Sad Face- Cluster Y</v>
+      <c r="B104" s="20" t="e">
+        <f>_xlfn.CONCAT(C104, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>33</v>
@@ -11360,7 +11299,7 @@
         <v>25</v>
       </c>
       <c r="Q104" s="4" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
@@ -11368,21 +11307,21 @@
     </row>
     <row r="105" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B105" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Bully- Cluster V</v>
+      <c r="B105" s="20" t="e">
+        <f>_xlfn.CONCAT(C105, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>67</v>
@@ -11409,27 +11348,27 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
       <c r="S105" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T105" s="4"/>
     </row>
     <row r="106" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B106" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Midnight- Cluster V</v>
+      <c r="B106" s="20" t="e">
+        <f>_xlfn.CONCAT(C106, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>57</v>
@@ -11456,27 +11395,27 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T106" s="4"/>
     </row>
     <row r="107" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B107" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Liwa- Cluster L</v>
+      <c r="B107" s="20" t="e">
+        <f>_xlfn.CONCAT(C107, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>51</v>
@@ -11515,21 +11454,21 @@
     </row>
     <row r="108" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B108" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Valerie- Cluster V</v>
+      <c r="B108" s="20" t="e">
+        <f>_xlfn.CONCAT(C108, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>51</v>
@@ -11568,21 +11507,21 @@
     </row>
     <row r="109" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B109" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Melody- Cluster M</v>
+      <c r="B109" s="20" t="e">
+        <f>_xlfn.CONCAT(C109, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>51</v>
@@ -11621,21 +11560,21 @@
     </row>
     <row r="110" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B110" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Coco- Cluster O</v>
+      <c r="B110" s="20" t="e">
+        <f>_xlfn.CONCAT(C110, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E110" s="12" t="s">
-        <v>216</v>
+      <c r="E110" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="G110" s="12" t="s">
         <v>77</v>
@@ -11662,33 +11601,33 @@
         <v>25</v>
       </c>
       <c r="Q110" s="12" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="R110" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S110" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T110" s="12"/>
     </row>
     <row r="111" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B111" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Lexie- Cluster D</v>
+      <c r="B111" s="20" t="e">
+        <f>_xlfn.CONCAT(C111, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E111" s="12" t="s">
-        <v>238</v>
+      <c r="E111" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="G111" s="12" t="s">
         <v>67</v>
@@ -11715,31 +11654,31 @@
         <v>25</v>
       </c>
       <c r="Q111" s="12" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="R111" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S111" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T111" s="12"/>
     </row>
     <row r="112" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B112" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Snowflake- Cluster J</v>
+      <c r="B112" s="20" t="e">
+        <f>_xlfn.CONCAT(C112, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>256</v>
+        <v>370</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>71</v>
@@ -11751,7 +11690,7 @@
         <v>68</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>59</v>
@@ -11760,13 +11699,13 @@
       <c r="M112" s="4"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="P112" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q112" s="4" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
@@ -11774,19 +11713,19 @@
     </row>
     <row r="113" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B113" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Jim- Cluster J</v>
+      <c r="B113" s="20" t="e">
+        <f>_xlfn.CONCAT(C113, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>256</v>
+        <v>370</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>67</v>
@@ -11798,7 +11737,7 @@
         <v>47</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>59</v>
@@ -11807,7 +11746,7 @@
       <c r="M113" s="4"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="P113" s="4" t="s">
         <v>25</v>
@@ -11819,21 +11758,21 @@
     </row>
     <row r="114" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B114" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Dixie- Cluster D</v>
+      <c r="B114" s="20" t="e">
+        <f>_xlfn.CONCAT(C114, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>67</v>
@@ -11845,7 +11784,7 @@
         <v>47</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>59</v>
@@ -11854,7 +11793,7 @@
       <c r="M114" s="4"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="P114" s="4" t="s">
         <v>25</v>
@@ -11866,21 +11805,21 @@
     </row>
     <row r="115" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B115" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Frank- Cluster J</v>
+      <c r="B115" s="20" t="e">
+        <f>_xlfn.CONCAT(C115, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>256</v>
+        <v>370</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>33</v>
@@ -11892,7 +11831,7 @@
         <v>47</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K115" s="4" t="s">
         <v>21</v>
@@ -11901,37 +11840,37 @@
       <c r="M115" s="4"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="P115" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q115" s="4" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="R115" s="4"/>
       <c r="S115" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T115" s="4"/>
     </row>
     <row r="116" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B116" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Pirate- Cluster D</v>
+      <c r="B116" s="20" t="e">
+        <f>_xlfn.CONCAT(C116, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>148</v>
@@ -11943,7 +11882,7 @@
         <v>47</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K116" s="4" t="s">
         <v>21</v>
@@ -11960,27 +11899,27 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T116" s="4"/>
     </row>
     <row r="117" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B117" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Scooter- Cluster D</v>
+      <c r="B117" s="20" t="e">
+        <f>_xlfn.CONCAT(C117, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>116</v>
@@ -11992,7 +11931,7 @@
         <v>47</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>21</v>
@@ -12007,31 +11946,31 @@
         <v>25</v>
       </c>
       <c r="Q117" s="4" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="R117" s="4"/>
       <c r="S117" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T117" s="4"/>
     </row>
     <row r="118" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B118" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Tom Tom- Cluster D</v>
+      <c r="B118" s="20" t="e">
+        <f>_xlfn.CONCAT(C118, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>148</v>
@@ -12043,7 +11982,7 @@
         <v>47</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K118" s="4" t="s">
         <v>21</v>
@@ -12058,31 +11997,31 @@
         <v>25</v>
       </c>
       <c r="Q118" s="4" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R118" s="4"/>
       <c r="S118" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T118" s="4"/>
     </row>
     <row r="119" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="B119" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Carl- Cluster C</v>
+      <c r="B119" s="20" t="e">
+        <f>_xlfn.CONCAT(C119, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>33</v>
@@ -12094,7 +12033,7 @@
         <v>47</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>59</v>
@@ -12109,7 +12048,7 @@
         <v>25</v>
       </c>
       <c r="Q119" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
@@ -12117,21 +12056,21 @@
     </row>
     <row r="120" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B120" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Joe- Cluster B</v>
+      <c r="B120" s="20" t="e">
+        <f>_xlfn.CONCAT(C120, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>33</v>
@@ -12143,7 +12082,7 @@
         <v>47</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K120" s="4" t="s">
         <v>21</v>
@@ -12158,31 +12097,31 @@
         <v>25</v>
       </c>
       <c r="Q120" s="4" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="R120" s="4"/>
       <c r="S120" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T120" s="4"/>
     </row>
     <row r="121" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B121" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Jerry- Cluster S</v>
+      <c r="B121" s="20" t="e">
+        <f>_xlfn.CONCAT(C121, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E121" s="12" t="s">
-        <v>214</v>
+      <c r="E121" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G121" s="12" t="s">
         <v>110</v>
@@ -12209,33 +12148,33 @@
         <v>25</v>
       </c>
       <c r="Q121" s="12" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="R121" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S121" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T121" s="12"/>
     </row>
     <row r="122" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B122" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Filli- Cluster F</v>
+      <c r="B122" s="20" t="e">
+        <f>_xlfn.CONCAT(C122, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E122" s="12" t="s">
-        <v>278</v>
+      <c r="E122" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="G122" s="12" t="s">
         <v>28</v>
@@ -12262,33 +12201,33 @@
         <v>25</v>
       </c>
       <c r="Q122" s="12" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="R122" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S122" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T122" s="12"/>
     </row>
     <row r="123" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B123" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Leon- Cluster A</v>
+      <c r="B123" s="20" t="e">
+        <f>_xlfn.CONCAT(C123, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E123" s="12" t="s">
-        <v>218</v>
+      <c r="E123" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="G123" s="12" t="s">
         <v>124</v>
@@ -12315,36 +12254,36 @@
         <v>25</v>
       </c>
       <c r="Q123" s="12" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="R123" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S123" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T123" s="12"/>
     </row>
     <row r="124" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B124" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Monty- Cluster M</v>
+      <c r="B124" s="20" t="e">
+        <f>_xlfn.CONCAT(C124, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E124" s="12" t="s">
-        <v>219</v>
+      <c r="E124" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="H124" s="12" t="s">
         <v>18</v>
@@ -12368,36 +12307,36 @@
         <v>25</v>
       </c>
       <c r="Q124" s="12" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="R124" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S124" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T124" s="12"/>
     </row>
     <row r="125" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="B125" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Moe- Cluster M</v>
+      <c r="B125" s="20" t="e">
+        <f>_xlfn.CONCAT(C125, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E125" s="12" t="s">
-        <v>219</v>
+      <c r="E125" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="H125" s="12" t="s">
         <v>18</v>
@@ -12421,33 +12360,33 @@
         <v>25</v>
       </c>
       <c r="Q125" s="12" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="R125" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S125" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T125" s="12"/>
     </row>
     <row r="126" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B126" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Eli- Cluster E</v>
+      <c r="B126" s="20" t="e">
+        <f>_xlfn.CONCAT(C126, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E126" s="12" t="s">
-        <v>287</v>
+      <c r="E126" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>41</v>
@@ -12474,36 +12413,36 @@
         <v>25</v>
       </c>
       <c r="Q126" s="12" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="R126" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S126" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T126" s="12"/>
     </row>
     <row r="127" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B127" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Louie- Cluster L</v>
+      <c r="B127" s="20" t="e">
+        <f>_xlfn.CONCAT(C127, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E127" s="12" t="s">
-        <v>217</v>
+      <c r="E127" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>42</v>
@@ -12527,7 +12466,7 @@
         <v>25</v>
       </c>
       <c r="Q127" s="12" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="R127" s="12" t="s">
         <v>21</v>
@@ -12537,21 +12476,21 @@
     </row>
     <row r="128" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B128" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Lola- Cluster L</v>
+      <c r="B128" s="20" t="e">
+        <f>_xlfn.CONCAT(C128, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E128" s="12" t="s">
-        <v>217</v>
+      <c r="E128" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G128" s="12" t="s">
         <v>67</v>
@@ -12578,7 +12517,7 @@
         <v>25</v>
       </c>
       <c r="Q128" s="12" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="R128" s="12" t="s">
         <v>21</v>
@@ -12588,24 +12527,24 @@
     </row>
     <row r="129" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B129" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Blue- Cluster M</v>
+      <c r="B129" s="20" t="e">
+        <f>_xlfn.CONCAT(C129, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E129" s="12" t="s">
-        <v>219</v>
+      <c r="E129" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="H129" s="12" t="s">
         <v>18</v>
@@ -12629,33 +12568,33 @@
         <v>25</v>
       </c>
       <c r="Q129" s="12" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="R129" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S129" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T129" s="12"/>
     </row>
     <row r="130" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="B130" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>Wendy- Cluster W</v>
+      <c r="B130" s="20" t="e">
+        <f>_xlfn.CONCAT(C130, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>71</v>
@@ -12667,7 +12606,7 @@
         <v>47</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K130" s="4" t="s">
         <v>21</v>
@@ -12684,27 +12623,27 @@
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
       <c r="S130" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T130" s="4"/>
     </row>
     <row r="131" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="B131" s="20" t="str">
-        <f t="shared" ref="B131:B194" si="4">_xlfn.CONCAT(C131, "- Cluster ",E131)</f>
-        <v>Wilson- Cluster W</v>
+      <c r="B131" s="20" t="e">
+        <f>_xlfn.CONCAT(C131, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>124</v>
@@ -12716,7 +12655,7 @@
         <v>47</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K131" s="4" t="s">
         <v>59</v>
@@ -12737,21 +12676,21 @@
     </row>
     <row r="132" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="21">
-        <f t="shared" ref="A132:A195" si="5">+A131+1</f>
+        <f t="shared" ref="A132:A195" si="2">+A131+1</f>
         <v>131</v>
       </c>
-      <c r="B132" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Winston- Cluster W</v>
+      <c r="B132" s="20" t="e">
+        <f>_xlfn.CONCAT(C132, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>71</v>
@@ -12763,7 +12702,7 @@
         <v>47</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K132" s="4" t="s">
         <v>59</v>
@@ -12784,19 +12723,19 @@
     </row>
     <row r="133" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="B133" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Yar- Cluster Y</v>
+      <c r="B133" s="20" t="e">
+        <f>_xlfn.CONCAT(C133, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>33</v>
@@ -12808,7 +12747,7 @@
         <v>68</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K133" s="4" t="s">
         <v>59</v>
@@ -12823,7 +12762,7 @@
         <v>25</v>
       </c>
       <c r="Q133" s="4" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="R133" s="4"/>
       <c r="S133" s="4"/>
@@ -12831,19 +12770,19 @@
     </row>
     <row r="134" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="B134" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Yer- Cluster Y</v>
+      <c r="B134" s="20" t="e">
+        <f>_xlfn.CONCAT(C134, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>33</v>
@@ -12855,7 +12794,7 @@
         <v>68</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K134" s="4" t="s">
         <v>59</v>
@@ -12870,7 +12809,7 @@
         <v>25</v>
       </c>
       <c r="Q134" s="4" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="R134" s="4"/>
       <c r="S134" s="4"/>
@@ -12878,19 +12817,19 @@
     </row>
     <row r="135" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="B135" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Yir- Cluster Y</v>
+      <c r="B135" s="20" t="e">
+        <f>_xlfn.CONCAT(C135, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>33</v>
@@ -12902,7 +12841,7 @@
         <v>68</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K135" s="4" t="s">
         <v>59</v>
@@ -12917,7 +12856,7 @@
         <v>25</v>
       </c>
       <c r="Q135" s="4" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
@@ -12925,19 +12864,19 @@
     </row>
     <row r="136" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="B136" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Yor- Cluster Y</v>
+      <c r="B136" s="20" t="e">
+        <f>_xlfn.CONCAT(C136, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>33</v>
@@ -12949,7 +12888,7 @@
         <v>68</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K136" s="4" t="s">
         <v>59</v>
@@ -12964,7 +12903,7 @@
         <v>25</v>
       </c>
       <c r="Q136" s="4" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="R136" s="4"/>
       <c r="S136" s="4"/>
@@ -12972,19 +12911,19 @@
     </row>
     <row r="137" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B137" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Yur- Cluster Y</v>
+      <c r="B137" s="20" t="e">
+        <f>_xlfn.CONCAT(C137, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>33</v>
@@ -12996,7 +12935,7 @@
         <v>68</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K137" s="4" t="s">
         <v>59</v>
@@ -13011,7 +12950,7 @@
         <v>25</v>
       </c>
       <c r="Q137" s="4" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="R137" s="4"/>
       <c r="S137" s="4"/>
@@ -13019,21 +12958,21 @@
     </row>
     <row r="138" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B138" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Yess- Cluster Y</v>
+      <c r="B138" s="20" t="e">
+        <f>_xlfn.CONCAT(C138, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>67</v>
@@ -13045,7 +12984,7 @@
         <v>47</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K138" s="4" t="s">
         <v>21</v>
@@ -13057,32 +12996,32 @@
         <v>35</v>
       </c>
       <c r="P138" s="4" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
       <c r="S138" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T138" s="4"/>
     </row>
     <row r="139" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="B139" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Snowy V- Cluster V</v>
+      <c r="B139" s="20" t="e">
+        <f>_xlfn.CONCAT(C139, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E139" s="12" t="s">
-        <v>223</v>
+      <c r="E139" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="G139" s="12" t="s">
         <v>77</v>
@@ -13113,27 +13052,27 @@
         <v>21</v>
       </c>
       <c r="S139" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T139" s="12"/>
     </row>
     <row r="140" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="B140" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Simba- Cluster O</v>
+      <c r="B140" s="20" t="e">
+        <f>_xlfn.CONCAT(C140, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E140" s="12" t="s">
-        <v>216</v>
+      <c r="E140" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="G140" s="12" t="s">
         <v>77</v>
@@ -13164,27 +13103,27 @@
         <v>21</v>
       </c>
       <c r="S140" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T140" s="12"/>
     </row>
     <row r="141" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="B141" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Betty- Cluster B</v>
+      <c r="B141" s="20" t="e">
+        <f>_xlfn.CONCAT(C141, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>33</v>
@@ -13196,7 +13135,7 @@
         <v>47</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="K141" s="4" t="s">
         <v>21</v>
@@ -13211,31 +13150,31 @@
         <v>25</v>
       </c>
       <c r="Q141" s="4" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="R141" s="4"/>
       <c r="S141" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T141" s="4"/>
     </row>
     <row r="142" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B142" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Daisy B- Cluster B</v>
+      <c r="B142" s="20" t="e">
+        <f>_xlfn.CONCAT(C142, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>124</v>
@@ -13247,7 +13186,7 @@
         <v>47</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="K142" s="4" t="s">
         <v>21</v>
@@ -13264,27 +13203,27 @@
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
       <c r="S142" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T142" s="4"/>
     </row>
     <row r="143" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="B143" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Carly- Cluster C</v>
+      <c r="B143" s="20" t="e">
+        <f>_xlfn.CONCAT(C143, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>110</v>
@@ -13296,7 +13235,7 @@
         <v>47</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="K143" s="4" t="s">
         <v>21</v>
@@ -13311,34 +13250,34 @@
         <v>25</v>
       </c>
       <c r="Q143" s="4" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="R143" s="4"/>
       <c r="S143" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T143" s="4"/>
     </row>
     <row r="144" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="B144" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Bella- Cluster B</v>
+      <c r="B144" s="20" t="e">
+        <f>_xlfn.CONCAT(C144, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>42</v>
@@ -13347,7 +13286,7 @@
         <v>19</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="K144" s="4" t="s">
         <v>21</v>
@@ -13362,31 +13301,31 @@
         <v>25</v>
       </c>
       <c r="Q144" s="4" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="R144" s="4"/>
       <c r="S144" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T144" s="4"/>
     </row>
     <row r="145" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B145" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Mr. Gentle- Cluster C</v>
+      <c r="B145" s="20" t="e">
+        <f>_xlfn.CONCAT(C145, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>51</v>
@@ -13398,7 +13337,7 @@
         <v>47</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="K145" s="4" t="s">
         <v>21</v>
@@ -13413,31 +13352,31 @@
         <v>25</v>
       </c>
       <c r="Q145" s="4" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="R145" s="4"/>
       <c r="S145" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T145" s="4"/>
     </row>
     <row r="146" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="B146" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Tigger- Cluster A</v>
+      <c r="B146" s="20" t="e">
+        <f>_xlfn.CONCAT(C146, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>124</v>
@@ -13449,7 +13388,7 @@
         <v>47</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="K146" s="4" t="s">
         <v>21</v>
@@ -13464,31 +13403,31 @@
         <v>25</v>
       </c>
       <c r="Q146" s="4" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="R146" s="4"/>
       <c r="S146" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T146" s="4"/>
     </row>
     <row r="147" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B147" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Tom- Cluster A</v>
+      <c r="B147" s="20" t="e">
+        <f>_xlfn.CONCAT(C147, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>124</v>
@@ -13500,7 +13439,7 @@
         <v>47</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="K147" s="4" t="s">
         <v>21</v>
@@ -13515,31 +13454,31 @@
         <v>30</v>
       </c>
       <c r="Q147" s="4" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="R147" s="4"/>
       <c r="S147" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T147" s="4"/>
     </row>
     <row r="148" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="B148" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Sambo- Cluster B</v>
+      <c r="B148" s="20" t="e">
+        <f>_xlfn.CONCAT(C148, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E148" s="12" t="s">
-        <v>273</v>
+      <c r="E148" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="G148" s="12" t="s">
         <v>71</v>
@@ -13566,33 +13505,33 @@
         <v>25</v>
       </c>
       <c r="Q148" s="12" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="R148" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S148" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T148" s="12"/>
     </row>
     <row r="149" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="B149" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Paddy- Cluster B</v>
+      <c r="B149" s="20" t="e">
+        <f>_xlfn.CONCAT(C149, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="D149" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E149" s="12" t="s">
-        <v>273</v>
+      <c r="E149" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="G149" s="12" t="s">
         <v>41</v>
@@ -13619,33 +13558,33 @@
         <v>25</v>
       </c>
       <c r="Q149" s="12" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="R149" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S149" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T149" s="12"/>
     </row>
     <row r="150" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B150" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Prince- Cluster Y</v>
+      <c r="B150" s="20" t="e">
+        <f>_xlfn.CONCAT(C150, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="D150" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E150" s="12" t="s">
-        <v>231</v>
+      <c r="E150" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="G150" s="12" t="s">
         <v>144</v>
@@ -13678,27 +13617,27 @@
         <v>21</v>
       </c>
       <c r="S150" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T150" s="12"/>
     </row>
     <row r="151" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B151" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Jim Jum- Cluster L</v>
+      <c r="B151" s="20" t="e">
+        <f>_xlfn.CONCAT(C151, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D151" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E151" s="12" t="s">
-        <v>217</v>
+      <c r="E151" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G151" s="12" t="s">
         <v>179</v>
@@ -13731,27 +13670,27 @@
         <v>21</v>
       </c>
       <c r="S151" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T151" s="12"/>
     </row>
     <row r="152" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="B152" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Teddy- Cluster S</v>
+      <c r="B152" s="20" t="e">
+        <f>_xlfn.CONCAT(C152, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E152" s="12" t="s">
-        <v>214</v>
+      <c r="E152" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G152" s="12" t="s">
         <v>179</v>
@@ -13784,27 +13723,27 @@
         <v>21</v>
       </c>
       <c r="S152" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T152" s="12"/>
     </row>
     <row r="153" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="B153" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Pixie- Cluster S</v>
+      <c r="B153" s="20" t="e">
+        <f>_xlfn.CONCAT(C153, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="D153" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E153" s="12" t="s">
-        <v>214</v>
+      <c r="E153" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G153" s="12" t="s">
         <v>17</v>
@@ -13837,27 +13776,27 @@
         <v>21</v>
       </c>
       <c r="S153" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T153" s="12"/>
     </row>
     <row r="154" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="B154" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Nikki- Cluster S</v>
+      <c r="B154" s="20" t="e">
+        <f>_xlfn.CONCAT(C154, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="D154" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E154" s="12" t="s">
-        <v>214</v>
+      <c r="E154" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G154" s="12" t="s">
         <v>116</v>
@@ -13890,27 +13829,27 @@
         <v>21</v>
       </c>
       <c r="S154" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T154" s="12"/>
     </row>
     <row r="155" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="B155" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Boo- Cluster Q</v>
+      <c r="B155" s="20" t="e">
+        <f>_xlfn.CONCAT(C155, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="D155" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E155" s="12" t="s">
-        <v>211</v>
+      <c r="E155" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G155" s="12" t="s">
         <v>116</v>
@@ -13941,27 +13880,27 @@
         <v>21</v>
       </c>
       <c r="S155" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T155" s="12"/>
     </row>
     <row r="156" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="B156" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Lara- Cluster E</v>
+      <c r="B156" s="20" t="e">
+        <f>_xlfn.CONCAT(C156, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="D156" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E156" s="12" t="s">
-        <v>287</v>
+      <c r="E156" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="G156" s="12" t="s">
         <v>67</v>
@@ -13992,27 +13931,27 @@
         <v>21</v>
       </c>
       <c r="S156" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T156" s="12"/>
     </row>
     <row r="157" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="B157" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Molly- Cluster S</v>
+      <c r="B157" s="20" t="e">
+        <f>_xlfn.CONCAT(C157, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="D157" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E157" s="12" t="s">
-        <v>214</v>
+      <c r="E157" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G157" s="12" t="s">
         <v>179</v>
@@ -14043,27 +13982,27 @@
         <v>21</v>
       </c>
       <c r="S157" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T157" s="12"/>
     </row>
     <row r="158" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="B158" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Rosemary / Tabby- Cluster M</v>
+      <c r="B158" s="20" t="e">
+        <f>_xlfn.CONCAT(C158, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="D158" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E158" s="12" t="s">
-        <v>219</v>
+      <c r="E158" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="G158" s="12" t="s">
         <v>67</v>
@@ -14094,27 +14033,27 @@
         <v>21</v>
       </c>
       <c r="S158" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T158" s="12"/>
     </row>
     <row r="159" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B159" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Mila- Cluster Q</v>
+      <c r="B159" s="20" t="e">
+        <f>_xlfn.CONCAT(C159, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="D159" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E159" s="12" t="s">
-        <v>211</v>
+      <c r="E159" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G159" s="12" t="s">
         <v>67</v>
@@ -14145,27 +14084,27 @@
         <v>21</v>
       </c>
       <c r="S159" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T159" s="12"/>
     </row>
     <row r="160" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="B160" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Mac- Cluster M</v>
+      <c r="B160" s="20" t="e">
+        <f>_xlfn.CONCAT(C160, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="D160" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E160" s="12" t="s">
-        <v>219</v>
+      <c r="E160" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="G160" s="12" t="s">
         <v>71</v>
@@ -14200,21 +14139,21 @@
     </row>
     <row r="161" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="B161" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Honeybun- Cluster D</v>
+      <c r="B161" s="20" t="e">
+        <f>_xlfn.CONCAT(C161, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>110</v>
@@ -14226,7 +14165,7 @@
         <v>47</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="K161" s="4" t="s">
         <v>21</v>
@@ -14241,31 +14180,31 @@
         <v>25</v>
       </c>
       <c r="Q161" s="4" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R161" s="4"/>
       <c r="S161" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T161" s="4"/>
     </row>
     <row r="162" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="B162" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Pepper E- Cluster D</v>
+      <c r="B162" s="20" t="e">
+        <f>_xlfn.CONCAT(C162, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>83</v>
@@ -14277,7 +14216,7 @@
         <v>47</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="K162" s="4" t="s">
         <v>21</v>
@@ -14292,31 +14231,31 @@
         <v>25</v>
       </c>
       <c r="Q162" s="4" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="R162" s="4"/>
       <c r="S162" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T162" s="4"/>
     </row>
     <row r="163" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="B163" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Trixi- Cluster D</v>
+      <c r="B163" s="20" t="e">
+        <f>_xlfn.CONCAT(C163, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>41</v>
@@ -14328,7 +14267,7 @@
         <v>47</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="K163" s="4" t="s">
         <v>21</v>
@@ -14343,31 +14282,31 @@
         <v>25</v>
       </c>
       <c r="Q163" s="4" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R163" s="4"/>
       <c r="S163" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T163" s="4"/>
     </row>
     <row r="164" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="B164" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Harold- Cluster H</v>
+      <c r="B164" s="20" t="e">
+        <f>_xlfn.CONCAT(C164, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>116</v>
@@ -14379,7 +14318,7 @@
         <v>47</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="K164" s="4" t="s">
         <v>59</v>
@@ -14394,7 +14333,7 @@
         <v>25</v>
       </c>
       <c r="Q164" s="4" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="R164" s="4"/>
       <c r="S164" s="4"/>
@@ -14402,21 +14341,21 @@
     </row>
     <row r="165" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="B165" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Chips- Cluster E</v>
+      <c r="B165" s="20" t="e">
+        <f>_xlfn.CONCAT(C165, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>116</v>
@@ -14428,7 +14367,7 @@
         <v>47</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="K165" s="4" t="s">
         <v>21</v>
@@ -14443,31 +14382,31 @@
         <v>25</v>
       </c>
       <c r="Q165" s="4" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="R165" s="4"/>
       <c r="S165" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T165" s="4"/>
     </row>
     <row r="166" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="B166" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Hank- Cluster H</v>
+      <c r="B166" s="20" t="e">
+        <f>_xlfn.CONCAT(C166, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>28</v>
@@ -14479,7 +14418,7 @@
         <v>47</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="K166" s="4" t="s">
         <v>21</v>
@@ -14494,31 +14433,31 @@
         <v>25</v>
       </c>
       <c r="Q166" s="4" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="R166" s="4"/>
       <c r="S166" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T166" s="4"/>
     </row>
     <row r="167" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="B167" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Henna- Cluster H</v>
+      <c r="B167" s="20" t="e">
+        <f>_xlfn.CONCAT(C167, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>67</v>
@@ -14530,7 +14469,7 @@
         <v>47</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="K167" s="4" t="s">
         <v>21</v>
@@ -14545,29 +14484,29 @@
         <v>25</v>
       </c>
       <c r="Q167" s="4" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="R167" s="4"/>
       <c r="S167" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T167" s="4"/>
     </row>
     <row r="168" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="B168" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Icky- Cluster I</v>
+      <c r="B168" s="20" t="e">
+        <f>_xlfn.CONCAT(C168, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>67</v>
@@ -14579,7 +14518,7 @@
         <v>68</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="K168" s="4" t="s">
         <v>59</v>
@@ -14594,7 +14533,7 @@
         <v>25</v>
       </c>
       <c r="Q168" s="4" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="R168" s="4"/>
       <c r="S168" s="4"/>
@@ -14602,19 +14541,19 @@
     </row>
     <row r="169" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="B169" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Iggy- Cluster I</v>
+      <c r="B169" s="20" t="e">
+        <f>_xlfn.CONCAT(C169, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>67</v>
@@ -14626,7 +14565,7 @@
         <v>68</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="K169" s="4" t="s">
         <v>59</v>
@@ -14641,7 +14580,7 @@
         <v>25</v>
       </c>
       <c r="Q169" s="4" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="R169" s="4"/>
       <c r="S169" s="4"/>
@@ -14649,21 +14588,21 @@
     </row>
     <row r="170" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="B170" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Ines- Cluster I</v>
+      <c r="B170" s="20" t="e">
+        <f>_xlfn.CONCAT(C170, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>67</v>
@@ -14675,7 +14614,7 @@
         <v>47</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="K170" s="4" t="s">
         <v>59</v>
@@ -14690,7 +14629,7 @@
         <v>25</v>
       </c>
       <c r="Q170" s="4" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="R170" s="4"/>
       <c r="S170" s="4"/>
@@ -14698,21 +14637,21 @@
     </row>
     <row r="171" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="B171" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Hazel- Cluster H</v>
+      <c r="B171" s="20" t="e">
+        <f>_xlfn.CONCAT(C171, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>28</v>
@@ -14724,7 +14663,7 @@
         <v>47</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="K171" s="4" t="s">
         <v>21</v>
@@ -14739,31 +14678,31 @@
         <v>25</v>
       </c>
       <c r="Q171" s="4" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="R171" s="4"/>
       <c r="S171" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T171" s="4"/>
     </row>
     <row r="172" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="B172" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Guy- Cluster G</v>
+      <c r="B172" s="20" t="e">
+        <f>_xlfn.CONCAT(C172, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>67</v>
@@ -14775,7 +14714,7 @@
         <v>47</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="K172" s="4" t="s">
         <v>59</v>
@@ -14796,21 +14735,21 @@
     </row>
     <row r="173" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="B173" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Dam- Cluster M</v>
+      <c r="B173" s="20" t="e">
+        <f>_xlfn.CONCAT(C173, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>57</v>
@@ -14822,7 +14761,7 @@
         <v>47</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="K173" s="4" t="s">
         <v>21</v>
@@ -14839,27 +14778,27 @@
       <c r="Q173" s="4"/>
       <c r="R173" s="4"/>
       <c r="S173" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T173" s="4"/>
     </row>
     <row r="174" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="B174" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Betsy- Cluster B</v>
+      <c r="B174" s="20" t="e">
+        <f>_xlfn.CONCAT(C174, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>124</v>
@@ -14871,7 +14810,7 @@
         <v>47</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="K174" s="4" t="s">
         <v>21</v>
@@ -14886,31 +14825,31 @@
         <v>25</v>
       </c>
       <c r="Q174" s="4" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="R174" s="4"/>
       <c r="S174" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T174" s="4"/>
     </row>
     <row r="175" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="B175" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Bea- Cluster B</v>
+      <c r="B175" s="20" t="e">
+        <f>_xlfn.CONCAT(C175, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>124</v>
@@ -14922,7 +14861,7 @@
         <v>47</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="K175" s="4" t="s">
         <v>21</v>
@@ -14937,34 +14876,34 @@
         <v>25</v>
       </c>
       <c r="Q175" s="4" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="R175" s="4"/>
       <c r="S175" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T175" s="4"/>
     </row>
     <row r="176" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="B176" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Rio- Cluster Q</v>
+      <c r="B176" s="20" t="e">
+        <f>_xlfn.CONCAT(C176, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="H176" s="4" t="s">
         <v>42</v>
@@ -14982,13 +14921,13 @@
       <c r="M176" s="4"/>
       <c r="N176" s="5"/>
       <c r="O176" s="5" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="P176" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q176" s="4" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="R176" s="4"/>
       <c r="S176" s="4"/>
@@ -14996,19 +14935,19 @@
     </row>
     <row r="177" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="B177" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>River- Cluster Q</v>
+      <c r="B177" s="20" t="e">
+        <f>_xlfn.CONCAT(C177, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>67</v>
@@ -15029,7 +14968,7 @@
       <c r="M177" s="4"/>
       <c r="N177" s="5"/>
       <c r="O177" s="5" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="P177" s="4" t="s">
         <v>25</v>
@@ -15041,19 +14980,19 @@
     </row>
     <row r="178" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="B178" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Rain- Cluster Q</v>
+      <c r="B178" s="20" t="e">
+        <f>_xlfn.CONCAT(C178, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>57</v>
@@ -15074,7 +15013,7 @@
       <c r="M178" s="4"/>
       <c r="N178" s="5"/>
       <c r="O178" s="5" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="P178" s="4" t="s">
         <v>25</v>
@@ -15086,21 +15025,21 @@
     </row>
     <row r="179" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="B179" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Tortoise- Cluster C</v>
+      <c r="B179" s="20" t="e">
+        <f>_xlfn.CONCAT(C179, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>67</v>
@@ -15112,7 +15051,7 @@
         <v>47</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="K179" s="4" t="s">
         <v>21</v>
@@ -15127,31 +15066,31 @@
         <v>25</v>
       </c>
       <c r="Q179" s="4" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="R179" s="4"/>
       <c r="S179" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T179" s="4"/>
     </row>
     <row r="180" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="B180" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Madame- Cluster N</v>
+      <c r="B180" s="20" t="e">
+        <f>_xlfn.CONCAT(C180, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>116</v>
@@ -15163,7 +15102,7 @@
         <v>47</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="K180" s="4" t="s">
         <v>21</v>
@@ -15180,27 +15119,27 @@
       <c r="Q180" s="4"/>
       <c r="R180" s="4"/>
       <c r="S180" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T180" s="4"/>
     </row>
     <row r="181" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="B181" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Blacky N- Cluster N</v>
+      <c r="B181" s="20" t="e">
+        <f>_xlfn.CONCAT(C181, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>57</v>
@@ -15212,7 +15151,7 @@
         <v>47</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="K181" s="4" t="s">
         <v>21</v>
@@ -15229,27 +15168,27 @@
       <c r="Q181" s="4"/>
       <c r="R181" s="4"/>
       <c r="S181" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T181" s="4"/>
     </row>
     <row r="182" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="B182" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Patch- Cluster N</v>
+      <c r="B182" s="20" t="e">
+        <f>_xlfn.CONCAT(C182, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>67</v>
@@ -15261,7 +15200,7 @@
         <v>47</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="K182" s="4" t="s">
         <v>21</v>
@@ -15278,27 +15217,27 @@
       <c r="Q182" s="4"/>
       <c r="R182" s="4"/>
       <c r="S182" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T182" s="4"/>
     </row>
     <row r="183" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="B183" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Mistery- Cluster M</v>
+      <c r="B183" s="20" t="e">
+        <f>_xlfn.CONCAT(C183, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>124</v>
@@ -15319,7 +15258,7 @@
       <c r="M183" s="4"/>
       <c r="N183" s="5"/>
       <c r="O183" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="P183" s="4" t="s">
         <v>25</v>
@@ -15333,21 +15272,21 @@
     </row>
     <row r="184" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="B184" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Dee Dee- Cluster D</v>
+      <c r="B184" s="20" t="e">
+        <f>_xlfn.CONCAT(C184, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>181</v>
@@ -15368,37 +15307,37 @@
       <c r="M184" s="4"/>
       <c r="N184" s="5"/>
       <c r="O184" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="P184" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q184" s="4" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="R184" s="4"/>
       <c r="S184" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T184" s="4"/>
     </row>
     <row r="185" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="B185" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Dirk- Cluster D</v>
+      <c r="B185" s="20" t="e">
+        <f>_xlfn.CONCAT(C185, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D185" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E185" s="12" t="s">
-        <v>238</v>
+      <c r="E185" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="G185" s="12" t="s">
         <v>67</v>
@@ -15429,27 +15368,27 @@
         <v>21</v>
       </c>
       <c r="S185" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T185" s="12"/>
     </row>
     <row r="186" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="B186" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Donald- Cluster D</v>
+      <c r="B186" s="20" t="e">
+        <f>_xlfn.CONCAT(C186, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="D186" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E186" s="12" t="s">
-        <v>238</v>
+      <c r="E186" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="G186" s="12" t="s">
         <v>67</v>
@@ -15480,27 +15419,27 @@
         <v>21</v>
       </c>
       <c r="S186" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T186" s="12"/>
     </row>
     <row r="187" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="B187" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Dougal- Cluster D</v>
+      <c r="B187" s="20" t="e">
+        <f>_xlfn.CONCAT(C187, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E187" s="12" t="s">
-        <v>238</v>
+      <c r="E187" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="G187" s="12" t="s">
         <v>67</v>
@@ -15531,27 +15470,27 @@
         <v>21</v>
       </c>
       <c r="S187" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T187" s="12"/>
     </row>
     <row r="188" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="B188" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Dora- Cluster D</v>
+      <c r="B188" s="20" t="e">
+        <f>_xlfn.CONCAT(C188, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D188" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E188" s="12" t="s">
-        <v>238</v>
+      <c r="E188" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="G188" s="12" t="s">
         <v>67</v>
@@ -15582,27 +15521,27 @@
         <v>21</v>
       </c>
       <c r="S188" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T188" s="12"/>
     </row>
     <row r="189" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="B189" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Silver Bush Mummy- Cluster D</v>
+      <c r="B189" s="20" t="e">
+        <f>_xlfn.CONCAT(C189, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="4" t="s">
@@ -15619,7 +15558,7 @@
       <c r="M189" s="4"/>
       <c r="N189" s="5"/>
       <c r="O189" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="P189" s="4" t="s">
         <v>25</v>
@@ -15631,21 +15570,21 @@
     </row>
     <row r="190" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
-      <c r="B190" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Holly- Cluster H</v>
+      <c r="B190" s="20" t="e">
+        <f>_xlfn.CONCAT(C190, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>67</v>
@@ -15664,40 +15603,40 @@
       <c r="M190" s="4"/>
       <c r="N190" s="5"/>
       <c r="O190" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="P190" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q190" s="4" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="R190" s="4"/>
       <c r="S190" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T190" s="4"/>
     </row>
     <row r="191" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="B191" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Hanna- Cluster H</v>
+      <c r="B191" s="20" t="e">
+        <f>_xlfn.CONCAT(C191, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="D191" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E191" s="12" t="s">
-        <v>222</v>
+      <c r="E191" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="G191" s="12" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="H191" s="12" t="s">
         <v>18</v>
@@ -15721,33 +15660,33 @@
         <v>25</v>
       </c>
       <c r="Q191" s="12" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="R191" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S191" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T191" s="12"/>
     </row>
     <row r="192" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
-      <c r="B192" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Missie- Cluster E</v>
+      <c r="B192" s="20" t="e">
+        <f>_xlfn.CONCAT(C192, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>41</v>
@@ -15776,27 +15715,27 @@
       <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
       <c r="S192" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T192" s="4"/>
     </row>
     <row r="193" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="B193" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Ginger E- Cluster E</v>
+      <c r="B193" s="20" t="e">
+        <f>_xlfn.CONCAT(C193, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>33</v>
@@ -15825,27 +15764,27 @@
       <c r="Q193" s="4"/>
       <c r="R193" s="4"/>
       <c r="S193" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T193" s="4"/>
     </row>
     <row r="194" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
-      <c r="B194" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Jumeirah- Cluster N</v>
+      <c r="B194" s="20" t="e">
+        <f>_xlfn.CONCAT(C194, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="D194" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E194" s="12" t="s">
-        <v>374</v>
+      <c r="E194" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="G194" s="12" t="s">
         <v>57</v>
@@ -15872,33 +15811,33 @@
         <v>25</v>
       </c>
       <c r="Q194" s="12" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="R194" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S194" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T194" s="12"/>
     </row>
     <row r="195" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="B195" s="20" t="str">
-        <f t="shared" ref="B195" si="6">_xlfn.CONCAT(C195, "- Cluster ",E195)</f>
-        <v>Torti/ Vivian- Cluster V</v>
+      <c r="B195" s="20" t="e">
+        <f>_xlfn.CONCAT(C195, "- Cluster ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E195" s="12" t="s">
-        <v>223</v>
+      <c r="E195" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="G195" s="12" t="s">
         <v>83</v>
@@ -15919,7 +15858,7 @@
       <c r="M195" s="12"/>
       <c r="N195" s="14"/>
       <c r="O195" s="14" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="P195" s="12" t="s">
         <v>25</v>

--- a/data/JLT_CatLogs.xlsx
+++ b/data/JLT_CatLogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudhendu-BCT\Documents\Projects\self\JLT_Cats\git\jlt-cat-tnr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C62CD3D-17B3-45AF-94EB-69810FC3967D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAA6438-B571-4F61-90A3-B9A407E69F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2DE1B5A-9FFD-406D-804B-F18313662538}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="378">
   <si>
     <t>NAME</t>
   </si>
@@ -6056,13 +6056,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75636529-9248-4C28-9B8C-5C9130528913}">
-  <dimension ref="A1:U195"/>
+  <dimension ref="A1:T195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B182" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:F1048576"/>
+      <selection pane="bottomRight" activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6079,10 +6079,9 @@
     <col min="18" max="18" width="11.5703125" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
     <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
@@ -6143,11 +6142,8 @@
       <c r="T1" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -6202,7 +6198,7 @@
       </c>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <f>+A2+1</f>
         <v>2</v>
@@ -6260,7 +6256,7 @@
       </c>
       <c r="T3" s="23"/>
     </row>
-    <row r="4" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <f t="shared" ref="A4:A67" si="0">+A3+1</f>
         <v>3</v>
@@ -6316,7 +6312,7 @@
       </c>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6372,7 +6368,7 @@
       </c>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6424,7 +6420,7 @@
       </c>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6480,7 +6476,7 @@
       </c>
       <c r="T7" s="12"/>
     </row>
-    <row r="8" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6542,7 +6538,7 @@
       </c>
       <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6592,7 +6588,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6642,7 +6638,7 @@
       </c>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6694,7 +6690,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
     </row>
-    <row r="12" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6742,7 +6738,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
     </row>
-    <row r="13" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6800,7 +6796,7 @@
       </c>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6848,7 +6844,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6902,7 +6898,7 @@
       </c>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <f t="shared" si="0"/>
         <v>15</v>

--- a/data/JLT_CatLogs.xlsx
+++ b/data/JLT_CatLogs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudhendu-BCT\Documents\Projects\self\JLT_Cats\git\jlt-cat-tnr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAA6438-B571-4F61-90A3-B9A407E69F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396A1F75-58EB-412B-A9C8-6BABD89252D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2DE1B5A-9FFD-406D-804B-F18313662538}"/>
   </bookViews>
@@ -30,40 +30,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>user</author>
-  </authors>
-  <commentList>
-    <comment ref="D90" authorId="0" shapeId="0" xr:uid="{377BE763-CCD4-4193-B3D0-F074C4C4ED44}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>user:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-not confirmed</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>user</author>
@@ -98,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="391">
   <si>
     <t>NAME</t>
   </si>
@@ -1232,6 +1198,45 @@
   </si>
   <si>
     <t>Cluster N</t>
+  </si>
+  <si>
+    <t>W kitten</t>
+  </si>
+  <si>
+    <t>Fostered by Carina</t>
+  </si>
+  <si>
+    <t>Adopted</t>
+  </si>
+  <si>
+    <t>Calico</t>
+  </si>
+  <si>
+    <t>Taj</t>
+  </si>
+  <si>
+    <t>6-8 months ol approx. by Sep 2020. Fpund in TAJ residences car park.</t>
+  </si>
+  <si>
+    <t>Sister of Chewy and Curiosity. Before Yuri</t>
+  </si>
+  <si>
+    <t>Brother of Bonnie and Curiosity. Before Yin</t>
+  </si>
+  <si>
+    <t>Sister of Chewy and Bonnie. Before Yasmin</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Liza</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>Ying (Tilly)</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1439,6 +1444,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6055,33 +6094,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75636529-9248-4C28-9B8C-5C9130528913}">
-  <dimension ref="A1:T195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75636529-9248-4C28-9B8C-5C9130528913}">
+  <dimension ref="A1:U217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1:U1048576"/>
+      <selection pane="bottomRight" activeCell="U208" sqref="U208:U217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
@@ -6143,7 +6189,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -6198,7 +6244,7 @@
       </c>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <f>+A2+1</f>
         <v>2</v>
@@ -6256,7 +6302,7 @@
       </c>
       <c r="T3" s="23"/>
     </row>
-    <row r="4" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <f t="shared" ref="A4:A67" si="0">+A3+1</f>
         <v>3</v>
@@ -6312,7 +6358,7 @@
       </c>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6420,7 +6466,7 @@
       </c>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6538,7 +6584,7 @@
       </c>
       <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6690,7 +6736,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
     </row>
-    <row r="12" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6738,7 +6784,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
     </row>
-    <row r="13" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6796,7 +6842,7 @@
       </c>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6844,7 +6890,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6898,7 +6944,7 @@
       </c>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6952,7 +6998,7 @@
       </c>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7062,7 +7108,7 @@
       </c>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7172,7 +7218,7 @@
       </c>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7278,7 +7324,7 @@
       </c>
       <c r="T22" s="12"/>
     </row>
-    <row r="23" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7336,7 +7382,7 @@
       </c>
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7388,7 +7434,7 @@
       </c>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7440,7 +7486,7 @@
       </c>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7492,7 +7538,7 @@
       </c>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7546,7 +7592,7 @@
       </c>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7598,7 +7644,7 @@
       </c>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7652,7 +7698,7 @@
       </c>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7702,7 +7748,7 @@
       </c>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7758,7 +7804,7 @@
       </c>
       <c r="T31" s="4"/>
     </row>
-    <row r="32" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7810,7 +7856,7 @@
       </c>
       <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7862,7 +7908,7 @@
       </c>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7910,7 +7956,7 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -8002,7 +8048,7 @@
       </c>
       <c r="T36" s="4"/>
     </row>
-    <row r="37" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -8040,7 +8086,7 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
     </row>
-    <row r="38" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -8078,7 +8124,7 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
     </row>
-    <row r="39" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -8116,7 +8162,7 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
     </row>
-    <row r="40" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -8154,7 +8200,7 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -8192,7 +8238,7 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
     </row>
-    <row r="42" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -8246,7 +8292,7 @@
       </c>
       <c r="T42" s="4"/>
     </row>
-    <row r="43" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -8284,7 +8330,7 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -8322,7 +8368,7 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
     </row>
-    <row r="45" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -8360,7 +8406,7 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
     </row>
-    <row r="46" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -8398,7 +8444,7 @@
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
     </row>
-    <row r="47" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -8436,7 +8482,7 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
     </row>
-    <row r="48" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -8474,7 +8520,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
     </row>
-    <row r="49" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -8514,7 +8560,7 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
     </row>
-    <row r="50" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -8706,7 +8752,7 @@
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
     </row>
-    <row r="55" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -8744,7 +8790,7 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
     </row>
-    <row r="56" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -8836,7 +8882,7 @@
       </c>
       <c r="T57" s="12"/>
     </row>
-    <row r="58" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -8892,7 +8938,7 @@
       </c>
       <c r="T58" s="4"/>
     </row>
-    <row r="59" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -9182,7 +9228,7 @@
       </c>
       <c r="T63" s="4"/>
     </row>
-    <row r="64" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -9236,7 +9282,7 @@
       </c>
       <c r="T64" s="4"/>
     </row>
-    <row r="65" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -9288,7 +9334,7 @@
       </c>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -9346,7 +9392,7 @@
       </c>
       <c r="T66" s="4"/>
     </row>
-    <row r="67" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -9402,7 +9448,7 @@
       </c>
       <c r="T67" s="4"/>
     </row>
-    <row r="68" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21">
         <f t="shared" ref="A68:A131" si="1">+A67+1</f>
         <v>67</v>
@@ -9454,7 +9500,7 @@
       </c>
       <c r="T68" s="12"/>
     </row>
-    <row r="69" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -9502,7 +9548,7 @@
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
     </row>
-    <row r="70" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -9710,7 +9756,7 @@
       <c r="S73" s="12"/>
       <c r="T73" s="12"/>
     </row>
-    <row r="74" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -9760,7 +9806,7 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
     </row>
-    <row r="75" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="21">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -9818,7 +9864,7 @@
       </c>
       <c r="T75" s="12"/>
     </row>
-    <row r="76" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -9874,7 +9920,7 @@
       </c>
       <c r="T76" s="4"/>
     </row>
-    <row r="77" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -10042,7 +10088,7 @@
       <c r="S79" s="12"/>
       <c r="T79" s="12"/>
     </row>
-    <row r="80" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -10092,7 +10138,7 @@
       </c>
       <c r="T80" s="4"/>
     </row>
-    <row r="81" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -10140,7 +10186,7 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
     </row>
-    <row r="82" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -10190,7 +10236,7 @@
       </c>
       <c r="T82" s="4"/>
     </row>
-    <row r="83" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="21">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -10240,7 +10286,7 @@
       </c>
       <c r="T83" s="4"/>
     </row>
-    <row r="84" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -10290,7 +10336,7 @@
       </c>
       <c r="T84" s="4"/>
     </row>
-    <row r="85" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -10342,7 +10388,7 @@
       </c>
       <c r="T85" s="4"/>
     </row>
-    <row r="86" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -10392,7 +10438,7 @@
       </c>
       <c r="T86" s="4"/>
     </row>
-    <row r="87" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="21">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -10442,7 +10488,7 @@
       </c>
       <c r="T87" s="4"/>
     </row>
-    <row r="88" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -10490,7 +10536,7 @@
       </c>
       <c r="T88" s="4"/>
     </row>
-    <row r="89" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -10542,7 +10588,7 @@
       </c>
       <c r="T89" s="4"/>
     </row>
-    <row r="90" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -10592,7 +10638,7 @@
       </c>
       <c r="T90" s="4"/>
     </row>
-    <row r="91" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -10644,7 +10690,7 @@
       <c r="S91" s="12"/>
       <c r="T91" s="12"/>
     </row>
-    <row r="92" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -10698,7 +10744,7 @@
       </c>
       <c r="T92" s="4"/>
     </row>
-    <row r="93" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -10752,7 +10798,7 @@
       </c>
       <c r="T93" s="4"/>
     </row>
-    <row r="94" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -10802,7 +10848,7 @@
       <c r="S94" s="12"/>
       <c r="T94" s="12"/>
     </row>
-    <row r="95" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -10850,7 +10896,7 @@
       </c>
       <c r="T95" s="4"/>
     </row>
-    <row r="96" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -10898,7 +10944,7 @@
       </c>
       <c r="T96" s="4"/>
     </row>
-    <row r="97" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -10950,7 +10996,7 @@
       <c r="S97" s="12"/>
       <c r="T97" s="12"/>
     </row>
-    <row r="98" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -11002,7 +11048,7 @@
       </c>
       <c r="T98" s="12"/>
     </row>
-    <row r="99" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -11058,7 +11104,7 @@
       </c>
       <c r="T99" s="4"/>
     </row>
-    <row r="100" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -11112,7 +11158,7 @@
       </c>
       <c r="T100" s="4"/>
     </row>
-    <row r="101" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -11160,7 +11206,7 @@
       </c>
       <c r="T101" s="4"/>
     </row>
-    <row r="102" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="21">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -11207,7 +11253,7 @@
       </c>
       <c r="T102" s="4"/>
     </row>
-    <row r="103" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -11254,7 +11300,7 @@
       <c r="S103" s="4"/>
       <c r="T103" s="4"/>
     </row>
-    <row r="104" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="21">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -11301,7 +11347,7 @@
       <c r="S104" s="4"/>
       <c r="T104" s="4"/>
     </row>
-    <row r="105" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="21">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -11348,7 +11394,7 @@
       </c>
       <c r="T105" s="4"/>
     </row>
-    <row r="106" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="21">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -11395,7 +11441,7 @@
       </c>
       <c r="T106" s="4"/>
     </row>
-    <row r="107" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="21">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -11448,7 +11494,7 @@
       </c>
       <c r="T107" s="4"/>
     </row>
-    <row r="108" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -11501,7 +11547,7 @@
       </c>
       <c r="T108" s="4"/>
     </row>
-    <row r="109" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="21">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -11660,7 +11706,7 @@
       </c>
       <c r="T111" s="12"/>
     </row>
-    <row r="112" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="21">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -11707,7 +11753,7 @@
       <c r="S112" s="4"/>
       <c r="T112" s="4"/>
     </row>
-    <row r="113" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="21">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -11752,7 +11798,7 @@
       <c r="S113" s="4"/>
       <c r="T113" s="4"/>
     </row>
-    <row r="114" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="21">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -11799,7 +11845,7 @@
       <c r="S114" s="4"/>
       <c r="T114" s="4"/>
     </row>
-    <row r="115" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="21">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -11850,7 +11896,7 @@
       </c>
       <c r="T115" s="4"/>
     </row>
-    <row r="116" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="21">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -11899,7 +11945,7 @@
       </c>
       <c r="T116" s="4"/>
     </row>
-    <row r="117" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="21">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -11950,7 +11996,7 @@
       </c>
       <c r="T117" s="4"/>
     </row>
-    <row r="118" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="21">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -12050,7 +12096,7 @@
       <c r="S119" s="4"/>
       <c r="T119" s="4"/>
     </row>
-    <row r="120" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="21">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -12154,7 +12200,7 @@
       </c>
       <c r="T121" s="12"/>
     </row>
-    <row r="122" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="21">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -12574,7 +12620,7 @@
       </c>
       <c r="T129" s="12"/>
     </row>
-    <row r="130" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="21">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -12623,7 +12669,7 @@
       </c>
       <c r="T130" s="4"/>
     </row>
-    <row r="131" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="21">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -12670,9 +12716,9 @@
       <c r="S131" s="4"/>
       <c r="T131" s="4"/>
     </row>
-    <row r="132" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="21">
-        <f t="shared" ref="A132:A195" si="2">+A131+1</f>
+        <f t="shared" ref="A132:A196" si="2">+A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" s="20" t="e">
@@ -12717,7 +12763,7 @@
       <c r="S132" s="4"/>
       <c r="T132" s="4"/>
     </row>
-    <row r="133" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="21">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -12764,7 +12810,7 @@
       <c r="S133" s="4"/>
       <c r="T133" s="4"/>
     </row>
-    <row r="134" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="21">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -12811,7 +12857,7 @@
       <c r="S134" s="4"/>
       <c r="T134" s="4"/>
     </row>
-    <row r="135" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="21">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -12858,7 +12904,7 @@
       <c r="S135" s="4"/>
       <c r="T135" s="4"/>
     </row>
-    <row r="136" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="21">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -12905,7 +12951,7 @@
       <c r="S136" s="4"/>
       <c r="T136" s="4"/>
     </row>
-    <row r="137" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="21">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -12952,7 +12998,7 @@
       <c r="S137" s="4"/>
       <c r="T137" s="4"/>
     </row>
-    <row r="138" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="21">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -13001,7 +13047,7 @@
       </c>
       <c r="T138" s="4"/>
     </row>
-    <row r="139" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="21">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -13052,7 +13098,7 @@
       </c>
       <c r="T139" s="12"/>
     </row>
-    <row r="140" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="21">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -13103,7 +13149,7 @@
       </c>
       <c r="T140" s="12"/>
     </row>
-    <row r="141" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="21">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -13154,7 +13200,7 @@
       </c>
       <c r="T141" s="4"/>
     </row>
-    <row r="142" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="21">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -13203,7 +13249,7 @@
       </c>
       <c r="T142" s="4"/>
     </row>
-    <row r="143" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="21">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -13254,7 +13300,7 @@
       </c>
       <c r="T143" s="4"/>
     </row>
-    <row r="144" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="21">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -13356,7 +13402,7 @@
       </c>
       <c r="T145" s="4"/>
     </row>
-    <row r="146" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="21">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -13407,7 +13453,7 @@
       </c>
       <c r="T146" s="4"/>
     </row>
-    <row r="147" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="21">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -13458,7 +13504,7 @@
       </c>
       <c r="T147" s="4"/>
     </row>
-    <row r="148" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="21">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -13511,7 +13557,7 @@
       </c>
       <c r="T148" s="12"/>
     </row>
-    <row r="149" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="21">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -13564,7 +13610,7 @@
       </c>
       <c r="T149" s="12"/>
     </row>
-    <row r="150" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="21">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -13617,7 +13663,7 @@
       </c>
       <c r="T150" s="12"/>
     </row>
-    <row r="151" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="21">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -13670,7 +13716,7 @@
       </c>
       <c r="T151" s="12"/>
     </row>
-    <row r="152" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="21">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -13723,7 +13769,7 @@
       </c>
       <c r="T152" s="12"/>
     </row>
-    <row r="153" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="21">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -13776,7 +13822,7 @@
       </c>
       <c r="T153" s="12"/>
     </row>
-    <row r="154" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="21">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -13829,7 +13875,7 @@
       </c>
       <c r="T154" s="12"/>
     </row>
-    <row r="155" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="21">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -13880,7 +13926,7 @@
       </c>
       <c r="T155" s="12"/>
     </row>
-    <row r="156" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="21">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -13931,7 +13977,7 @@
       </c>
       <c r="T156" s="12"/>
     </row>
-    <row r="157" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="21">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -14033,7 +14079,7 @@
       </c>
       <c r="T158" s="12"/>
     </row>
-    <row r="159" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="21">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -14084,7 +14130,7 @@
       </c>
       <c r="T159" s="12"/>
     </row>
-    <row r="160" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="21">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -14133,7 +14179,7 @@
       <c r="S160" s="12"/>
       <c r="T160" s="12"/>
     </row>
-    <row r="161" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="21">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -14235,7 +14281,7 @@
       </c>
       <c r="T162" s="4"/>
     </row>
-    <row r="163" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="21">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -14286,7 +14332,7 @@
       </c>
       <c r="T163" s="4"/>
     </row>
-    <row r="164" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="21">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -14335,7 +14381,7 @@
       <c r="S164" s="4"/>
       <c r="T164" s="4"/>
     </row>
-    <row r="165" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="21">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -14386,7 +14432,7 @@
       </c>
       <c r="T165" s="4"/>
     </row>
-    <row r="166" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="21">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -14437,7 +14483,7 @@
       </c>
       <c r="T166" s="4"/>
     </row>
-    <row r="167" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="21">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -14488,7 +14534,7 @@
       </c>
       <c r="T167" s="4"/>
     </row>
-    <row r="168" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="21">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -14535,7 +14581,7 @@
       <c r="S168" s="4"/>
       <c r="T168" s="4"/>
     </row>
-    <row r="169" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="21">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -14631,7 +14677,7 @@
       <c r="S170" s="4"/>
       <c r="T170" s="4"/>
     </row>
-    <row r="171" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="21">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -14682,7 +14728,7 @@
       </c>
       <c r="T171" s="4"/>
     </row>
-    <row r="172" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="21">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -14729,7 +14775,7 @@
       <c r="S172" s="4"/>
       <c r="T172" s="4"/>
     </row>
-    <row r="173" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="21">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -14778,7 +14824,7 @@
       </c>
       <c r="T173" s="4"/>
     </row>
-    <row r="174" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="21">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -14829,7 +14875,7 @@
       </c>
       <c r="T174" s="4"/>
     </row>
-    <row r="175" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="21">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -14880,7 +14926,7 @@
       </c>
       <c r="T175" s="4"/>
     </row>
-    <row r="176" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="21">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -14929,7 +14975,7 @@
       <c r="S176" s="4"/>
       <c r="T176" s="4"/>
     </row>
-    <row r="177" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="21">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -14974,7 +15020,7 @@
       <c r="S177" s="4"/>
       <c r="T177" s="4"/>
     </row>
-    <row r="178" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="21">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -15019,7 +15065,7 @@
       <c r="S178" s="4"/>
       <c r="T178" s="4"/>
     </row>
-    <row r="179" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="21">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -15070,7 +15116,7 @@
       </c>
       <c r="T179" s="4"/>
     </row>
-    <row r="180" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="21">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -15119,7 +15165,7 @@
       </c>
       <c r="T180" s="4"/>
     </row>
-    <row r="181" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="21">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -15168,7 +15214,7 @@
       </c>
       <c r="T181" s="4"/>
     </row>
-    <row r="182" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="21">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -15217,7 +15263,7 @@
       </c>
       <c r="T182" s="4"/>
     </row>
-    <row r="183" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="21">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -15317,7 +15363,7 @@
       </c>
       <c r="T184" s="4"/>
     </row>
-    <row r="185" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="21">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -15368,7 +15414,7 @@
       </c>
       <c r="T185" s="12"/>
     </row>
-    <row r="186" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="21">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -15419,7 +15465,7 @@
       </c>
       <c r="T186" s="12"/>
     </row>
-    <row r="187" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="21">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -15470,7 +15516,7 @@
       </c>
       <c r="T187" s="12"/>
     </row>
-    <row r="188" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="21">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -15521,7 +15567,7 @@
       </c>
       <c r="T188" s="12"/>
     </row>
-    <row r="189" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="21">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -15564,7 +15610,7 @@
       <c r="S189" s="4"/>
       <c r="T189" s="4"/>
     </row>
-    <row r="190" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="21">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -15613,7 +15659,7 @@
       </c>
       <c r="T190" s="4"/>
     </row>
-    <row r="191" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="21">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -15666,7 +15712,7 @@
       </c>
       <c r="T191" s="12"/>
     </row>
-    <row r="192" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="21">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -15715,7 +15761,7 @@
       </c>
       <c r="T192" s="4"/>
     </row>
-    <row r="193" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="21">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -15764,7 +15810,7 @@
       </c>
       <c r="T193" s="4"/>
     </row>
-    <row r="194" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="21">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -15817,7 +15863,7 @@
       </c>
       <c r="T194" s="12"/>
     </row>
-    <row r="195" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="21">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -15865,6 +15911,1010 @@
         <v>145</v>
       </c>
       <c r="T195" s="12"/>
+    </row>
+    <row r="196" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="37">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="B196" s="31"/>
+      <c r="C196" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D196" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E196" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F196" s="27"/>
+      <c r="G196" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H196" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I196" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J196" s="31"/>
+      <c r="K196" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L196" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M196" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="N196" s="32">
+        <v>44066</v>
+      </c>
+      <c r="O196" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P196" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q196" s="31"/>
+      <c r="R196" s="31"/>
+      <c r="S196" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="T196" s="28"/>
+    </row>
+    <row r="197" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="37">
+        <f t="shared" ref="A197:A217" si="3">+A196+1</f>
+        <v>196</v>
+      </c>
+      <c r="B197" s="31"/>
+      <c r="C197" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D197" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E197" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F197" s="27"/>
+      <c r="G197" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H197" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I197" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J197" s="31"/>
+      <c r="K197" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L197" s="31"/>
+      <c r="M197" s="31"/>
+      <c r="N197" s="32"/>
+      <c r="O197" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P197" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q197" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="R197" s="31"/>
+      <c r="S197" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="T197" s="28"/>
+    </row>
+    <row r="198" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="37">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="34"/>
+      <c r="C198" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="D198" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="F198" s="27"/>
+      <c r="G198" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H198" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I198" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J198" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K198" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="L198" s="34"/>
+      <c r="M198" s="34"/>
+      <c r="N198" s="36"/>
+      <c r="O198" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="P198" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q198" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="R198" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="S198" s="34"/>
+      <c r="T198" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="37">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B199" s="31"/>
+      <c r="C199" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D199" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E199" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="F199" s="27"/>
+      <c r="G199" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H199" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I199" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J199" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="K199" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L199" s="31"/>
+      <c r="M199" s="31"/>
+      <c r="N199" s="32"/>
+      <c r="O199" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P199" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q199" s="31"/>
+      <c r="R199" s="31"/>
+      <c r="S199" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="T199" s="28"/>
+    </row>
+    <row r="200" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="37">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="B200" s="31"/>
+      <c r="C200" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="D200" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="F200" s="27"/>
+      <c r="G200" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H200" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I200" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J200" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="K200" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="L200" s="31"/>
+      <c r="M200" s="31"/>
+      <c r="N200" s="32"/>
+      <c r="O200" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P200" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q200" s="31"/>
+      <c r="R200" s="31"/>
+      <c r="S200" s="31"/>
+      <c r="T200" s="28"/>
+    </row>
+    <row r="201" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="37">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B201" s="31"/>
+      <c r="C201" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D201" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E201" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="F201" s="27"/>
+      <c r="G201" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H201" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I201" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J201" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="K201" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="L201" s="31"/>
+      <c r="M201" s="31"/>
+      <c r="N201" s="32"/>
+      <c r="O201" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P201" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q201" s="31"/>
+      <c r="R201" s="31"/>
+      <c r="S201" s="31"/>
+      <c r="T201" s="28"/>
+    </row>
+    <row r="202" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="37">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="B202" s="31"/>
+      <c r="C202" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D202" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E202" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F202" s="27"/>
+      <c r="G202" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H202" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I202" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J202" s="31"/>
+      <c r="K202" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L202" s="31"/>
+      <c r="M202" s="31"/>
+      <c r="N202" s="32"/>
+      <c r="O202" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P202" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q202" s="31"/>
+      <c r="R202" s="31"/>
+      <c r="S202" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="T202" s="28"/>
+    </row>
+    <row r="203" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="37">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="31"/>
+      <c r="C203" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D203" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E203" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F203" s="27"/>
+      <c r="G203" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="H203" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I203" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J203" s="31"/>
+      <c r="K203" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L203" s="31"/>
+      <c r="M203" s="31"/>
+      <c r="N203" s="32"/>
+      <c r="O203" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P203" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q203" s="31"/>
+      <c r="R203" s="31"/>
+      <c r="S203" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="T203" s="28"/>
+    </row>
+    <row r="204" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="37">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="B204" s="31"/>
+      <c r="C204" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D204" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E204" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F204" s="27"/>
+      <c r="G204" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="H204" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I204" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J204" s="31"/>
+      <c r="K204" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L204" s="31"/>
+      <c r="M204" s="31"/>
+      <c r="N204" s="32"/>
+      <c r="O204" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P204" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q204" s="31"/>
+      <c r="R204" s="31"/>
+      <c r="S204" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="T204" s="28"/>
+    </row>
+    <row r="205" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="37">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="B205" s="31"/>
+      <c r="C205" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="D205" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E205" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F205" s="27"/>
+      <c r="G205" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H205" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I205" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J205" s="31"/>
+      <c r="K205" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L205" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M205" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="N205" s="32">
+        <v>44102</v>
+      </c>
+      <c r="O205" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P205" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q205" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="R205" s="31"/>
+      <c r="S205" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="T205" s="28"/>
+    </row>
+    <row r="206" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="37">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="B206" s="31"/>
+      <c r="C206" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D206" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F206" s="27"/>
+      <c r="G206" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="H206" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I206" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J206" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="K206" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L206" s="31"/>
+      <c r="M206" s="31"/>
+      <c r="N206" s="32"/>
+      <c r="O206" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P206" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q206" s="31"/>
+      <c r="R206" s="31"/>
+      <c r="S206" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="T206" s="28"/>
+    </row>
+    <row r="207" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="37">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="B207" s="31"/>
+      <c r="C207" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D207" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E207" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F207" s="27"/>
+      <c r="G207" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H207" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I207" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J207" s="31"/>
+      <c r="K207" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L207" s="31"/>
+      <c r="M207" s="31"/>
+      <c r="N207" s="32"/>
+      <c r="O207" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P207" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q207" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="R207" s="31"/>
+      <c r="S207" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="T207" s="28"/>
+    </row>
+    <row r="208" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="37">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="B208" s="31"/>
+      <c r="C208" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D208" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E208" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F208" s="27"/>
+      <c r="G208" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H208" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I208" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J208" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="K208" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L208" s="31"/>
+      <c r="M208" s="31"/>
+      <c r="N208" s="32"/>
+      <c r="O208" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P208" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q208" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="R208" s="31"/>
+      <c r="S208" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="T208" s="28"/>
+    </row>
+    <row r="209" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="37">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="B209" s="31"/>
+      <c r="C209" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D209" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E209" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F209" s="27"/>
+      <c r="G209" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="H209" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I209" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J209" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="K209" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L209" s="31"/>
+      <c r="M209" s="31"/>
+      <c r="N209" s="32"/>
+      <c r="O209" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P209" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q209" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="R209" s="31"/>
+      <c r="S209" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="T209" s="28"/>
+    </row>
+    <row r="210" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="37">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="B210" s="34"/>
+      <c r="C210" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D210" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F210" s="27"/>
+      <c r="G210" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H210" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I210" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J210" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="K210" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L210" s="34"/>
+      <c r="M210" s="34"/>
+      <c r="N210" s="36"/>
+      <c r="O210" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="P210" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q210" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="R210" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="S210" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="T210" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="37">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="B211" s="31"/>
+      <c r="C211" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D211" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F211" s="27"/>
+      <c r="G211" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H211" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I211" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J211" s="31"/>
+      <c r="K211" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="L211" s="31"/>
+      <c r="M211" s="31"/>
+      <c r="N211" s="32"/>
+      <c r="O211" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P211" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q211" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="R211" s="31"/>
+      <c r="S211" s="31"/>
+      <c r="T211" s="28"/>
+    </row>
+    <row r="212" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="37">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+      <c r="B212" s="31"/>
+      <c r="C212" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="D212" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E212" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F212" s="27"/>
+      <c r="G212" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H212" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I212" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J212" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="K212" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L212" s="31"/>
+      <c r="M212" s="31"/>
+      <c r="N212" s="32"/>
+      <c r="O212" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="P212" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q212" s="31"/>
+      <c r="R212" s="31"/>
+      <c r="S212" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="T212" s="28"/>
+    </row>
+    <row r="213" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="37">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="B213" s="31"/>
+      <c r="C213" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="D213" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E213" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F213" s="27"/>
+      <c r="G213" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H213" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I213" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J213" s="31"/>
+      <c r="K213" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L213" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M213" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="N213" s="32">
+        <v>44128</v>
+      </c>
+      <c r="O213" s="32"/>
+      <c r="P213" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q213" s="31"/>
+      <c r="R213" s="31"/>
+      <c r="S213" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="T213" s="28"/>
+    </row>
+    <row r="214" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="37">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="B214" s="31"/>
+      <c r="C214" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D214" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E214" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F214" s="27"/>
+      <c r="G214" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H214" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I214" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J214" s="31"/>
+      <c r="K214" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="L214" s="31"/>
+      <c r="M214" s="31"/>
+      <c r="N214" s="32"/>
+      <c r="O214" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P214" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q214" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="R214" s="31"/>
+      <c r="S214" s="31"/>
+      <c r="T214" s="28"/>
+    </row>
+    <row r="215" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="37">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="B215" s="31"/>
+      <c r="C215" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D215" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F215" s="27"/>
+      <c r="G215" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H215" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I215" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J215" s="31"/>
+      <c r="K215" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L215" s="31"/>
+      <c r="M215" s="31"/>
+      <c r="N215" s="32"/>
+      <c r="O215" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P215" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q215" s="31"/>
+      <c r="R215" s="31"/>
+      <c r="S215" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="T215" s="28"/>
+    </row>
+    <row r="216" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="37">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="B216" s="31"/>
+      <c r="C216" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="D216" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E216" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F216" s="27"/>
+      <c r="G216" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H216" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I216" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J216" s="31"/>
+      <c r="K216" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L216" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M216" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="N216" s="38">
+        <v>44138</v>
+      </c>
+      <c r="O216" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P216" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q216" s="31"/>
+      <c r="R216" s="31"/>
+      <c r="S216" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="T216" s="28"/>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A217" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T101" xr:uid="{B5F12467-C60D-4926-9AF0-2AB516213F7B}"/>
@@ -18111,7 +19161,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
